--- a/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.533980192962872</v>
+        <v>2.533980192962986</v>
       </c>
       <c r="C2">
-        <v>2.353224265955589</v>
+        <v>2.353224265956214</v>
       </c>
       <c r="D2">
-        <v>0.2138425854528805</v>
+        <v>0.2138425854526389</v>
       </c>
       <c r="E2">
-        <v>1.495075896176601</v>
+        <v>1.495075896176559</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.734684184448753</v>
+        <v>9.734684184448639</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.124159540529973</v>
+        <v>2.124159540530258</v>
       </c>
       <c r="C3">
-        <v>1.997145228982845</v>
+        <v>1.997145228983186</v>
       </c>
       <c r="D3">
-        <v>0.1820397866746077</v>
+        <v>0.1820397866745935</v>
       </c>
       <c r="E3">
-        <v>1.258162029348568</v>
+        <v>1.258162029348583</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.9238329410760002</v>
+        <v>0.9238329410760286</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.886636914533</v>
+        <v>1.886636914533142</v>
       </c>
       <c r="C4">
-        <v>1.787848368122809</v>
+        <v>1.787848368122866</v>
       </c>
       <c r="D4">
-        <v>0.1632993249689605</v>
+        <v>0.1632993249687473</v>
       </c>
       <c r="E4">
-        <v>1.1201731543958</v>
+        <v>1.120173154395815</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.631861848032514</v>
+        <v>7.631861848032457</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.8236054096319378</v>
+        <v>0.8236054096319521</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.792728781077471</v>
+        <v>1.792728781077699</v>
       </c>
       <c r="C5">
-        <v>1.704458888322961</v>
+        <v>1.704458888323018</v>
       </c>
       <c r="D5">
-        <v>0.1558237286010353</v>
+        <v>0.1558237286015327</v>
       </c>
       <c r="E5">
-        <v>1.065441834065297</v>
+        <v>1.065441834065368</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.319284152378629</v>
+        <v>7.3192841523786</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.7838384378560903</v>
+        <v>0.783838437856069</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.777292571715833</v>
+        <v>1.77729257171606</v>
       </c>
       <c r="C6">
-        <v>1.690715405256583</v>
+        <v>1.690715405256526</v>
       </c>
       <c r="D6">
-        <v>0.1545912087952388</v>
+        <v>0.1545912087954235</v>
       </c>
       <c r="E6">
-        <v>1.056434670233202</v>
+        <v>1.056434670233344</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.7772937677814227</v>
+        <v>0.7772937677814369</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.885359543542933</v>
+        <v>1.885359543542677</v>
       </c>
       <c r="C7">
-        <v>1.786716583299096</v>
+        <v>1.786716583299381</v>
       </c>
       <c r="D7">
-        <v>0.1631978968677714</v>
+        <v>0.1631978968680698</v>
       </c>
       <c r="E7">
-        <v>1.119429400846002</v>
+        <v>1.119429400846045</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.627623822918054</v>
+        <v>7.627623822918252</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.823065035048586</v>
+        <v>0.8230650350485718</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.389302534378714</v>
+        <v>2.389302534378146</v>
       </c>
       <c r="C8">
-        <v>2.22821230905663</v>
+        <v>2.228212309055436</v>
       </c>
       <c r="D8">
-        <v>0.2026894885671027</v>
+        <v>0.2026894885669748</v>
       </c>
       <c r="E8">
-        <v>1.411580796020473</v>
+        <v>1.411580796020431</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.272104313914554</v>
+        <v>9.272104313914667</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.035151705572972</v>
+        <v>1.035151705573</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.528724442432804</v>
+        <v>3.528724442433031</v>
       </c>
       <c r="C9">
-        <v>3.194358000666057</v>
+        <v>3.194358000665545</v>
       </c>
       <c r="D9">
-        <v>0.2884979654166813</v>
+        <v>0.2884979654159565</v>
       </c>
       <c r="E9">
-        <v>2.06669153467702</v>
+        <v>2.066691534677119</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.81356437057471</v>
+        <v>12.81356437057474</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.536070671601067</v>
+        <v>4.536070671601919</v>
       </c>
       <c r="C10">
-        <v>4.017287007617767</v>
+        <v>4.017287007619586</v>
       </c>
       <c r="D10">
-        <v>0.3607783330759702</v>
+        <v>0.3607783330756575</v>
       </c>
       <c r="E10">
-        <v>2.644808445487726</v>
+        <v>2.644808445487669</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.76943819447115</v>
+        <v>15.76943819447098</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.918486050994147</v>
+        <v>1.918486050994119</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>5.060401462781442</v>
       </c>
       <c r="C11">
-        <v>4.435422577616293</v>
+        <v>4.435422577616578</v>
       </c>
       <c r="D11">
-        <v>0.3971675557440904</v>
+        <v>0.3971675557439767</v>
       </c>
       <c r="E11">
-        <v>2.946896983087839</v>
+        <v>2.946896983087711</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.24919561953658</v>
+        <v>17.24919561953675</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.13010438423531</v>
+        <v>2.130104384235437</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.272517699642151</v>
+        <v>5.27251769964181</v>
       </c>
       <c r="C12">
-        <v>4.602722231400435</v>
+        <v>4.602722231399014</v>
       </c>
       <c r="D12">
-        <v>0.4116566704646232</v>
+        <v>0.4116566704645379</v>
       </c>
       <c r="E12">
-        <v>3.069521883574154</v>
+        <v>3.069521883574183</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.8368992857163</v>
+        <v>17.83689928571653</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.226142724803367</v>
+        <v>5.226142724803253</v>
       </c>
       <c r="C13">
-        <v>4.566234632577675</v>
+        <v>4.566234632577732</v>
       </c>
       <c r="D13">
-        <v>0.408500213748809</v>
+        <v>0.4085002137480842</v>
       </c>
       <c r="E13">
-        <v>3.042688231997005</v>
+        <v>3.042688231996948</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.70893941781281</v>
+        <v>17.7089394178127</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.196700010450201</v>
+        <v>2.196700010450286</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.077549514787393</v>
+        <v>5.077549514786824</v>
       </c>
       <c r="C14">
-        <v>4.448986499238174</v>
+        <v>4.448986499238515</v>
       </c>
       <c r="D14">
-        <v>0.3983438198134621</v>
+        <v>0.3983438198139169</v>
       </c>
       <c r="E14">
-        <v>2.9568001501342</v>
+        <v>2.956800150134242</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.29693831054703</v>
+        <v>17.29693831054681</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.137001038262042</v>
+        <v>2.137001038261971</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.98845497066975</v>
+        <v>4.988454970669522</v>
       </c>
       <c r="C15">
-        <v>4.378438254291837</v>
+        <v>4.378438254290927</v>
       </c>
       <c r="D15">
-        <v>0.3922229330992764</v>
+        <v>0.3922229330994611</v>
       </c>
       <c r="E15">
-        <v>2.905365392123031</v>
+        <v>2.905365392123102</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17.0484402996733</v>
+        <v>17.04844029967376</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.101152275892844</v>
+        <v>2.101152275892872</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.503437048535204</v>
+        <v>4.503437048534693</v>
       </c>
       <c r="C16">
-        <v>3.991040845158011</v>
+        <v>3.991040845157841</v>
       </c>
       <c r="D16">
-        <v>0.3584861759829892</v>
+        <v>0.3584861759824776</v>
       </c>
       <c r="E16">
-        <v>2.62604563323201</v>
+        <v>2.626045633232039</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.67604599011224</v>
+        <v>15.67604599011253</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.905266697086873</v>
+        <v>1.905266697086816</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.225136839552022</v>
+        <v>4.225136839551794</v>
       </c>
       <c r="C17">
-        <v>3.766122005861064</v>
+        <v>3.766122005861405</v>
       </c>
       <c r="D17">
-        <v>0.3388063592001629</v>
+        <v>0.3388063592003761</v>
       </c>
       <c r="E17">
-        <v>2.466171071910253</v>
+        <v>2.466171071910338</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.87329945017308</v>
+        <v>14.87329945017339</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.070962816445956</v>
+        <v>4.07096281644624</v>
       </c>
       <c r="C18">
-        <v>3.640663758090113</v>
+        <v>3.640663758088351</v>
       </c>
       <c r="D18">
-        <v>0.3278011116740771</v>
+        <v>0.3278011116739208</v>
       </c>
       <c r="E18">
-        <v>2.377685871609202</v>
+        <v>2.377685871609302</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.42367327597469</v>
+        <v>14.42367327597495</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.729519575292059</v>
+        <v>1.729519575291931</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>4.019681058501646</v>
       </c>
       <c r="C19">
-        <v>3.598795377486681</v>
+        <v>3.598795377486567</v>
       </c>
       <c r="D19">
-        <v>0.3241240710487716</v>
+        <v>0.3241240710489848</v>
       </c>
       <c r="E19">
-        <v>2.348263276688456</v>
+        <v>2.348263276688527</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.27332888346606</v>
+        <v>14.27332888346643</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.708609452560125</v>
+        <v>1.708609452560083</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.25412879662764</v>
+        <v>4.254128796627867</v>
       </c>
       <c r="C20">
-        <v>3.78964511761933</v>
+        <v>3.789645117619955</v>
       </c>
       <c r="D20">
-        <v>0.3408676190500586</v>
+        <v>0.3408676190499875</v>
       </c>
       <c r="E20">
         <v>2.482816133711694</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.95745576442985</v>
+        <v>14.95745576442994</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.804082188509085</v>
+        <v>1.804082188509142</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.120783617247241</v>
+        <v>5.120783617247184</v>
       </c>
       <c r="C21">
-        <v>4.483153619839584</v>
+        <v>4.48315361984055</v>
       </c>
       <c r="D21">
-        <v>0.4013055929453628</v>
+        <v>0.4013055929452065</v>
       </c>
       <c r="E21">
-        <v>2.981775921972527</v>
+        <v>2.981775921972599</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17.41712736081234</v>
+        <v>17.41712736081269</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2.154382387129559</v>
+        <v>2.15438238712963</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.770065575816943</v>
+        <v>5.770065575817114</v>
       </c>
       <c r="C22">
-        <v>4.991124790402068</v>
+        <v>4.991124790401784</v>
       </c>
       <c r="D22">
-        <v>0.4451273659137058</v>
+        <v>0.4451273659138337</v>
       </c>
       <c r="E22">
-        <v>3.358403519929283</v>
+        <v>3.358403519929226</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19.19134565832894</v>
+        <v>19.19134565832854</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.414292053477055</v>
+        <v>2.414292053477041</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.413946125307064</v>
+        <v>5.41394612530712</v>
       </c>
       <c r="C23">
-        <v>4.713693049162885</v>
+        <v>4.713693049162828</v>
       </c>
       <c r="D23">
-        <v>0.421243963827223</v>
+        <v>0.421243963827564</v>
       </c>
       <c r="E23">
-        <v>3.15144588477844</v>
+        <v>3.151445884778497</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.22531651264325</v>
+        <v>18.2253165126433</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2.271993340591848</v>
+        <v>2.271993340591962</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.241003663283664</v>
+        <v>4.241003663283834</v>
       </c>
       <c r="C24">
-        <v>3.778998504030142</v>
+        <v>3.778998504030199</v>
       </c>
       <c r="D24">
-        <v>0.3399347750074071</v>
+        <v>0.3399347750074355</v>
       </c>
       <c r="E24">
-        <v>2.475280394406838</v>
+        <v>2.475280394406695</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.9193722150091</v>
+        <v>14.91937221500893</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.798745595956177</v>
+        <v>1.798745595956234</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.197778160240318</v>
+        <v>3.19777816024083</v>
       </c>
       <c r="C25">
-        <v>2.917892079903993</v>
+        <v>2.917892079904504</v>
       </c>
       <c r="D25">
-        <v>0.2640391465602505</v>
+        <v>0.26403914656008</v>
       </c>
       <c r="E25">
-        <v>1.876828848684681</v>
+        <v>1.876828848684738</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.80797516739489</v>
+        <v>11.80797516739514</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.371312245712375</v>
+        <v>1.371312245712389</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.533980192962986</v>
+        <v>2.533980192962872</v>
       </c>
       <c r="C2">
-        <v>2.353224265956214</v>
+        <v>2.353224265955589</v>
       </c>
       <c r="D2">
-        <v>0.2138425854526389</v>
+        <v>0.2138425854528805</v>
       </c>
       <c r="E2">
-        <v>1.495075896176559</v>
+        <v>1.495075896176601</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.734684184448639</v>
+        <v>9.734684184448753</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.124159540530258</v>
+        <v>2.124159540529973</v>
       </c>
       <c r="C3">
-        <v>1.997145228983186</v>
+        <v>1.997145228982845</v>
       </c>
       <c r="D3">
-        <v>0.1820397866745935</v>
+        <v>0.1820397866746077</v>
       </c>
       <c r="E3">
-        <v>1.258162029348583</v>
+        <v>1.258162029348568</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.9238329410760286</v>
+        <v>0.9238329410760002</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.886636914533142</v>
+        <v>1.886636914533</v>
       </c>
       <c r="C4">
-        <v>1.787848368122866</v>
+        <v>1.787848368122809</v>
       </c>
       <c r="D4">
-        <v>0.1632993249687473</v>
+        <v>0.1632993249689605</v>
       </c>
       <c r="E4">
-        <v>1.120173154395815</v>
+        <v>1.1201731543958</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.631861848032457</v>
+        <v>7.631861848032514</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.8236054096319521</v>
+        <v>0.8236054096319378</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.792728781077699</v>
+        <v>1.792728781077471</v>
       </c>
       <c r="C5">
-        <v>1.704458888323018</v>
+        <v>1.704458888322961</v>
       </c>
       <c r="D5">
-        <v>0.1558237286015327</v>
+        <v>0.1558237286010353</v>
       </c>
       <c r="E5">
-        <v>1.065441834065368</v>
+        <v>1.065441834065297</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.3192841523786</v>
+        <v>7.319284152378629</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.783838437856069</v>
+        <v>0.7838384378560903</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.77729257171606</v>
+        <v>1.777292571715833</v>
       </c>
       <c r="C6">
-        <v>1.690715405256526</v>
+        <v>1.690715405256583</v>
       </c>
       <c r="D6">
-        <v>0.1545912087954235</v>
+        <v>0.1545912087952388</v>
       </c>
       <c r="E6">
-        <v>1.056434670233344</v>
+        <v>1.056434670233202</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.7772937677814369</v>
+        <v>0.7772937677814227</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.885359543542677</v>
+        <v>1.885359543542933</v>
       </c>
       <c r="C7">
-        <v>1.786716583299381</v>
+        <v>1.786716583299096</v>
       </c>
       <c r="D7">
-        <v>0.1631978968680698</v>
+        <v>0.1631978968677714</v>
       </c>
       <c r="E7">
-        <v>1.119429400846045</v>
+        <v>1.119429400846002</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.627623822918252</v>
+        <v>7.627623822918054</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.8230650350485718</v>
+        <v>0.823065035048586</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.389302534378146</v>
+        <v>2.389302534378714</v>
       </c>
       <c r="C8">
-        <v>2.228212309055436</v>
+        <v>2.22821230905663</v>
       </c>
       <c r="D8">
-        <v>0.2026894885669748</v>
+        <v>0.2026894885671027</v>
       </c>
       <c r="E8">
-        <v>1.411580796020431</v>
+        <v>1.411580796020473</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.272104313914667</v>
+        <v>9.272104313914554</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.035151705573</v>
+        <v>1.035151705572972</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.528724442433031</v>
+        <v>3.528724442432804</v>
       </c>
       <c r="C9">
-        <v>3.194358000665545</v>
+        <v>3.194358000666057</v>
       </c>
       <c r="D9">
-        <v>0.2884979654159565</v>
+        <v>0.2884979654166813</v>
       </c>
       <c r="E9">
-        <v>2.066691534677119</v>
+        <v>2.06669153467702</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.81356437057474</v>
+        <v>12.81356437057471</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.536070671601919</v>
+        <v>4.536070671601067</v>
       </c>
       <c r="C10">
-        <v>4.017287007619586</v>
+        <v>4.017287007617767</v>
       </c>
       <c r="D10">
-        <v>0.3607783330756575</v>
+        <v>0.3607783330759702</v>
       </c>
       <c r="E10">
-        <v>2.644808445487669</v>
+        <v>2.644808445487726</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.76943819447098</v>
+        <v>15.76943819447115</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.918486050994119</v>
+        <v>1.918486050994147</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>5.060401462781442</v>
       </c>
       <c r="C11">
-        <v>4.435422577616578</v>
+        <v>4.435422577616293</v>
       </c>
       <c r="D11">
-        <v>0.3971675557439767</v>
+        <v>0.3971675557440904</v>
       </c>
       <c r="E11">
-        <v>2.946896983087711</v>
+        <v>2.946896983087839</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.24919561953675</v>
+        <v>17.24919561953658</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.130104384235437</v>
+        <v>2.13010438423531</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.27251769964181</v>
+        <v>5.272517699642151</v>
       </c>
       <c r="C12">
-        <v>4.602722231399014</v>
+        <v>4.602722231400435</v>
       </c>
       <c r="D12">
-        <v>0.4116566704645379</v>
+        <v>0.4116566704646232</v>
       </c>
       <c r="E12">
-        <v>3.069521883574183</v>
+        <v>3.069521883574154</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.83689928571653</v>
+        <v>17.8368992857163</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.226142724803253</v>
+        <v>5.226142724803367</v>
       </c>
       <c r="C13">
-        <v>4.566234632577732</v>
+        <v>4.566234632577675</v>
       </c>
       <c r="D13">
-        <v>0.4085002137480842</v>
+        <v>0.408500213748809</v>
       </c>
       <c r="E13">
-        <v>3.042688231996948</v>
+        <v>3.042688231997005</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.7089394178127</v>
+        <v>17.70893941781281</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.196700010450286</v>
+        <v>2.196700010450201</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.077549514786824</v>
+        <v>5.077549514787393</v>
       </c>
       <c r="C14">
-        <v>4.448986499238515</v>
+        <v>4.448986499238174</v>
       </c>
       <c r="D14">
-        <v>0.3983438198139169</v>
+        <v>0.3983438198134621</v>
       </c>
       <c r="E14">
-        <v>2.956800150134242</v>
+        <v>2.9568001501342</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.29693831054681</v>
+        <v>17.29693831054703</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.137001038261971</v>
+        <v>2.137001038262042</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.988454970669522</v>
+        <v>4.98845497066975</v>
       </c>
       <c r="C15">
-        <v>4.378438254290927</v>
+        <v>4.378438254291837</v>
       </c>
       <c r="D15">
-        <v>0.3922229330994611</v>
+        <v>0.3922229330992764</v>
       </c>
       <c r="E15">
-        <v>2.905365392123102</v>
+        <v>2.905365392123031</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17.04844029967376</v>
+        <v>17.0484402996733</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.101152275892872</v>
+        <v>2.101152275892844</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.503437048534693</v>
+        <v>4.503437048535204</v>
       </c>
       <c r="C16">
-        <v>3.991040845157841</v>
+        <v>3.991040845158011</v>
       </c>
       <c r="D16">
-        <v>0.3584861759824776</v>
+        <v>0.3584861759829892</v>
       </c>
       <c r="E16">
-        <v>2.626045633232039</v>
+        <v>2.62604563323201</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.67604599011253</v>
+        <v>15.67604599011224</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.905266697086816</v>
+        <v>1.905266697086873</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.225136839551794</v>
+        <v>4.225136839552022</v>
       </c>
       <c r="C17">
-        <v>3.766122005861405</v>
+        <v>3.766122005861064</v>
       </c>
       <c r="D17">
-        <v>0.3388063592003761</v>
+        <v>0.3388063592001629</v>
       </c>
       <c r="E17">
-        <v>2.466171071910338</v>
+        <v>2.466171071910253</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.87329945017339</v>
+        <v>14.87329945017308</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.07096281644624</v>
+        <v>4.070962816445956</v>
       </c>
       <c r="C18">
-        <v>3.640663758088351</v>
+        <v>3.640663758090113</v>
       </c>
       <c r="D18">
-        <v>0.3278011116739208</v>
+        <v>0.3278011116740771</v>
       </c>
       <c r="E18">
-        <v>2.377685871609302</v>
+        <v>2.377685871609202</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.42367327597495</v>
+        <v>14.42367327597469</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.729519575291931</v>
+        <v>1.729519575292059</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>4.019681058501646</v>
       </c>
       <c r="C19">
-        <v>3.598795377486567</v>
+        <v>3.598795377486681</v>
       </c>
       <c r="D19">
-        <v>0.3241240710489848</v>
+        <v>0.3241240710487716</v>
       </c>
       <c r="E19">
-        <v>2.348263276688527</v>
+        <v>2.348263276688456</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.27332888346643</v>
+        <v>14.27332888346606</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.708609452560083</v>
+        <v>1.708609452560125</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.254128796627867</v>
+        <v>4.25412879662764</v>
       </c>
       <c r="C20">
-        <v>3.789645117619955</v>
+        <v>3.78964511761933</v>
       </c>
       <c r="D20">
-        <v>0.3408676190499875</v>
+        <v>0.3408676190500586</v>
       </c>
       <c r="E20">
         <v>2.482816133711694</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.95745576442994</v>
+        <v>14.95745576442985</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.804082188509142</v>
+        <v>1.804082188509085</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.120783617247184</v>
+        <v>5.120783617247241</v>
       </c>
       <c r="C21">
-        <v>4.48315361984055</v>
+        <v>4.483153619839584</v>
       </c>
       <c r="D21">
-        <v>0.4013055929452065</v>
+        <v>0.4013055929453628</v>
       </c>
       <c r="E21">
-        <v>2.981775921972599</v>
+        <v>2.981775921972527</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17.41712736081269</v>
+        <v>17.41712736081234</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2.15438238712963</v>
+        <v>2.154382387129559</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.770065575817114</v>
+        <v>5.770065575816943</v>
       </c>
       <c r="C22">
-        <v>4.991124790401784</v>
+        <v>4.991124790402068</v>
       </c>
       <c r="D22">
-        <v>0.4451273659138337</v>
+        <v>0.4451273659137058</v>
       </c>
       <c r="E22">
-        <v>3.358403519929226</v>
+        <v>3.358403519929283</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19.19134565832854</v>
+        <v>19.19134565832894</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.414292053477041</v>
+        <v>2.414292053477055</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.41394612530712</v>
+        <v>5.413946125307064</v>
       </c>
       <c r="C23">
-        <v>4.713693049162828</v>
+        <v>4.713693049162885</v>
       </c>
       <c r="D23">
-        <v>0.421243963827564</v>
+        <v>0.421243963827223</v>
       </c>
       <c r="E23">
-        <v>3.151445884778497</v>
+        <v>3.15144588477844</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.2253165126433</v>
+        <v>18.22531651264325</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2.271993340591962</v>
+        <v>2.271993340591848</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.241003663283834</v>
+        <v>4.241003663283664</v>
       </c>
       <c r="C24">
-        <v>3.778998504030199</v>
+        <v>3.778998504030142</v>
       </c>
       <c r="D24">
-        <v>0.3399347750074355</v>
+        <v>0.3399347750074071</v>
       </c>
       <c r="E24">
-        <v>2.475280394406695</v>
+        <v>2.475280394406838</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.91937221500893</v>
+        <v>14.9193722150091</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.798745595956234</v>
+        <v>1.798745595956177</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.19777816024083</v>
+        <v>3.197778160240318</v>
       </c>
       <c r="C25">
-        <v>2.917892079904504</v>
+        <v>2.917892079903993</v>
       </c>
       <c r="D25">
-        <v>0.26403914656008</v>
+        <v>0.2640391465602505</v>
       </c>
       <c r="E25">
-        <v>1.876828848684738</v>
+        <v>1.876828848684681</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.80797516739514</v>
+        <v>11.80797516739489</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.371312245712389</v>
+        <v>1.371312245712375</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.533980192962872</v>
+        <v>2.493986971186246</v>
       </c>
       <c r="C2">
-        <v>2.353224265955589</v>
+        <v>2.330126461616089</v>
       </c>
       <c r="D2">
-        <v>0.2138425854528805</v>
+        <v>0.2124602420557409</v>
       </c>
       <c r="E2">
-        <v>1.495075896176601</v>
+        <v>1.48420225220444</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007498898056692802</v>
       </c>
       <c r="H2">
-        <v>9.734684184448753</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.729029729919489</v>
       </c>
       <c r="J2">
-        <v>1.095658262097842</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.081003226909843</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.124159540529973</v>
+        <v>2.091663441804258</v>
       </c>
       <c r="C3">
-        <v>1.997145228982845</v>
+        <v>1.979118936880013</v>
       </c>
       <c r="D3">
-        <v>0.1820397866746077</v>
+        <v>0.1809077201087206</v>
       </c>
       <c r="E3">
-        <v>1.258162029348568</v>
+        <v>1.249387317112891</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007667638871024497</v>
       </c>
       <c r="H3">
-        <v>8.413574585038589</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.417486106113842</v>
       </c>
       <c r="J3">
-        <v>0.9238329410760002</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9120609226661287</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.886636914533</v>
+        <v>1.858538576098965</v>
       </c>
       <c r="C4">
-        <v>1.787848368122809</v>
+        <v>1.77278428880112</v>
       </c>
       <c r="D4">
-        <v>0.1632993249689605</v>
+        <v>0.1623084182680685</v>
       </c>
       <c r="E4">
-        <v>1.1201731543958</v>
+        <v>1.11254670181691</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007771203082056993</v>
       </c>
       <c r="H4">
-        <v>7.631861848032514</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.641146213758191</v>
       </c>
       <c r="J4">
-        <v>0.8236054096319378</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8135238405371581</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.792728781077471</v>
+        <v>1.766387167861666</v>
       </c>
       <c r="C5">
-        <v>1.704458888322961</v>
+        <v>1.690574822344388</v>
       </c>
       <c r="D5">
-        <v>0.1558237286010353</v>
+        <v>0.1548879336592961</v>
       </c>
       <c r="E5">
-        <v>1.065441834065297</v>
+        <v>1.058256676905785</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007813527895852991</v>
       </c>
       <c r="H5">
-        <v>7.319284152378629</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.330661262871303</v>
       </c>
       <c r="J5">
-        <v>0.7838384378560903</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.774431862443933</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.777292571715833</v>
+        <v>1.751240922849689</v>
       </c>
       <c r="C6">
-        <v>1.690715405256583</v>
+        <v>1.677025913653665</v>
       </c>
       <c r="D6">
-        <v>0.1545912087952388</v>
+        <v>0.153664437442842</v>
       </c>
       <c r="E6">
-        <v>1.056434670233202</v>
+        <v>1.049321391034127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007820566661371764</v>
       </c>
       <c r="H6">
-        <v>7.267704766449555</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.279424249973317</v>
       </c>
       <c r="J6">
-        <v>0.7772937677814227</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7679985879715048</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.885359543542933</v>
+        <v>1.857285021717047</v>
       </c>
       <c r="C7">
-        <v>1.786716583299096</v>
+        <v>1.771668515233671</v>
       </c>
       <c r="D7">
-        <v>0.1631978968677714</v>
+        <v>0.162207742354596</v>
       </c>
       <c r="E7">
-        <v>1.119429400846002</v>
+        <v>1.111808997808524</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007771773237762562</v>
       </c>
       <c r="H7">
-        <v>7.627623822918054</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.636936770558606</v>
       </c>
       <c r="J7">
-        <v>0.823065035048586</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8129926183149223</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.389302534378714</v>
+        <v>2.351948235964358</v>
       </c>
       <c r="C8">
-        <v>2.22821230905663</v>
+        <v>2.206902272948753</v>
       </c>
       <c r="D8">
-        <v>0.2026894885671027</v>
+        <v>0.2013965452310913</v>
       </c>
       <c r="E8">
-        <v>1.411580796020473</v>
+        <v>1.401466124541258</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007557176979395906</v>
       </c>
       <c r="H8">
-        <v>9.272104313914554</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.269872292949913</v>
       </c>
       <c r="J8">
-        <v>1.035151705572972</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.021511550176172</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.528724442432804</v>
+        <v>3.470474038974203</v>
       </c>
       <c r="C9">
-        <v>3.194358000666057</v>
+        <v>3.158844275111505</v>
       </c>
       <c r="D9">
-        <v>0.2884979654166813</v>
+        <v>0.2864638327606173</v>
       </c>
       <c r="E9">
-        <v>2.06669153467702</v>
+        <v>2.049977092042255</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007128261805985147</v>
       </c>
       <c r="H9">
-        <v>12.81356437057471</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.78281181473756</v>
       </c>
       <c r="J9">
-        <v>1.507631761006621</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.485958686526629</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.536070671601067</v>
+        <v>4.458359784316713</v>
       </c>
       <c r="C10">
-        <v>4.017287007617767</v>
+        <v>3.968514290245992</v>
       </c>
       <c r="D10">
-        <v>0.3607783330759702</v>
+        <v>0.3579988299556902</v>
       </c>
       <c r="E10">
-        <v>2.644808445487726</v>
+        <v>2.620760839670467</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006792992827131052</v>
       </c>
       <c r="H10">
-        <v>15.76943819447115</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.70976322633499</v>
       </c>
       <c r="J10">
-        <v>1.918486050994147</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.889350144498522</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.060401462781442</v>
+        <v>4.971822484247127</v>
       </c>
       <c r="C11">
-        <v>4.435422577616293</v>
+        <v>4.379257202637177</v>
       </c>
       <c r="D11">
-        <v>0.3971675557440904</v>
+        <v>0.393954880095464</v>
       </c>
       <c r="E11">
-        <v>2.946896983087839</v>
+        <v>2.918274304844772</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006630512575726287</v>
       </c>
       <c r="H11">
-        <v>17.24919561953658</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>17.17264383293201</v>
       </c>
       <c r="J11">
-        <v>2.13010438423531</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.096812037273622</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.272517699642151</v>
+        <v>5.179345731665478</v>
       </c>
       <c r="C12">
-        <v>4.602722231400435</v>
+        <v>4.543437276042823</v>
       </c>
       <c r="D12">
-        <v>0.4116566704646232</v>
+        <v>0.4082580142968624</v>
       </c>
       <c r="E12">
-        <v>3.069521883574154</v>
+        <v>3.038865846967724</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006566783031322284</v>
       </c>
       <c r="H12">
-        <v>17.8368992857163</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17.75309053703069</v>
       </c>
       <c r="J12">
-        <v>2.215308834347823</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.180262552018604</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.226142724803367</v>
+        <v>5.13398574041031</v>
       </c>
       <c r="C13">
-        <v>4.566234632577675</v>
+        <v>4.507638793795536</v>
       </c>
       <c r="D13">
-        <v>0.408500213748809</v>
+        <v>0.4051427923385944</v>
       </c>
       <c r="E13">
-        <v>3.042688231997005</v>
+        <v>3.012486560872901</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000658062293438164</v>
       </c>
       <c r="H13">
-        <v>17.70893941781281</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.62674014415092</v>
       </c>
       <c r="J13">
-        <v>2.196700010450201</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.162041187100101</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.077549514787393</v>
+        <v>4.988603818588331</v>
       </c>
       <c r="C14">
-        <v>4.448986499238174</v>
+        <v>4.392571936904858</v>
       </c>
       <c r="D14">
-        <v>0.3983438198134621</v>
+        <v>0.3951163540955633</v>
       </c>
       <c r="E14">
-        <v>2.9568001501342</v>
+        <v>2.928017274626882</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006625319475951472</v>
       </c>
       <c r="H14">
-        <v>17.29693831054703</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>17.21980963144347</v>
       </c>
       <c r="J14">
-        <v>2.137001038262042</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.10356859431171</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.98845497066975</v>
+        <v>4.901406198509903</v>
       </c>
       <c r="C15">
-        <v>4.378438254291837</v>
+        <v>4.323312865162109</v>
       </c>
       <c r="D15">
-        <v>0.3922229330992764</v>
+        <v>0.3890718569067104</v>
       </c>
       <c r="E15">
-        <v>2.905365392123031</v>
+        <v>2.877407110627885</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006652381153867597</v>
       </c>
       <c r="H15">
-        <v>17.0484402996733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.97429079829055</v>
       </c>
       <c r="J15">
-        <v>2.101152275892844</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.068444620934599</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.503437048535204</v>
+        <v>4.426382605758874</v>
       </c>
       <c r="C16">
-        <v>3.991040845158011</v>
+        <v>3.942715069074836</v>
       </c>
       <c r="D16">
-        <v>0.3584861759829892</v>
+        <v>0.3557324932364452</v>
       </c>
       <c r="E16">
-        <v>2.62604563323201</v>
+        <v>2.602263541054512</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006803353244218384</v>
       </c>
       <c r="H16">
-        <v>15.67604599011224</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.61737569107379</v>
       </c>
       <c r="J16">
-        <v>1.905266697086873</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.876382119390428</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.225136839552022</v>
+        <v>4.153599250232105</v>
       </c>
       <c r="C17">
-        <v>3.766122005861064</v>
+        <v>3.721553778863836</v>
       </c>
       <c r="D17">
-        <v>0.3388063592001629</v>
+        <v>0.3362679560371049</v>
       </c>
       <c r="E17">
-        <v>2.466171071910253</v>
+        <v>2.444570856062185</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006892976461574385</v>
       </c>
       <c r="H17">
-        <v>14.87329945017308</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.82299888444336</v>
       </c>
       <c r="J17">
-        <v>1.792292951310074</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.765521770930604</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.070962816445956</v>
+        <v>4.002424377147292</v>
       </c>
       <c r="C18">
-        <v>3.640663758090113</v>
+        <v>3.598139062310565</v>
       </c>
       <c r="D18">
-        <v>0.3278011116740771</v>
+        <v>0.3253783783573851</v>
       </c>
       <c r="E18">
-        <v>2.377685871609202</v>
+        <v>2.357234354080859</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006943648395394624</v>
       </c>
       <c r="H18">
-        <v>14.42367327597469</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.37786431213939</v>
       </c>
       <c r="J18">
-        <v>1.729519575292059</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.703898177245748</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.019681058501646</v>
+        <v>3.95213207175874</v>
       </c>
       <c r="C19">
-        <v>3.598795377486681</v>
+        <v>3.55694494526449</v>
       </c>
       <c r="D19">
-        <v>0.3241240710487716</v>
+        <v>0.3217392753503248</v>
       </c>
       <c r="E19">
-        <v>2.348263276688456</v>
+        <v>2.32818489690672</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006960672319693997</v>
       </c>
       <c r="H19">
-        <v>14.27332888346606</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.22899217467065</v>
       </c>
       <c r="J19">
-        <v>1.708609452560125</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.683367508928839</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.25412879662764</v>
+        <v>4.182022912269019</v>
       </c>
       <c r="C20">
-        <v>3.78964511761933</v>
+        <v>3.744689723737679</v>
       </c>
       <c r="D20">
-        <v>0.3408676190500586</v>
+        <v>0.3383071866430214</v>
       </c>
       <c r="E20">
-        <v>2.482816133711694</v>
+        <v>2.460995271899108</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006883531113211034</v>
       </c>
       <c r="H20">
-        <v>14.95745576442985</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.9062993229291</v>
       </c>
       <c r="J20">
-        <v>1.804082188509085</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.777093208711221</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.120783617247241</v>
+        <v>5.030909847305225</v>
       </c>
       <c r="C21">
-        <v>4.483153619839584</v>
+        <v>4.42610850880169</v>
       </c>
       <c r="D21">
-        <v>0.4013055929453628</v>
+        <v>0.3980406502963945</v>
       </c>
       <c r="E21">
-        <v>2.981775921972527</v>
+        <v>2.952585950808725</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006612258905950664</v>
       </c>
       <c r="H21">
-        <v>17.41712736081234</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.33853670671493</v>
       </c>
       <c r="J21">
-        <v>2.154382387129559</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.120595436291282</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.770065575816943</v>
+        <v>5.665576120499566</v>
       </c>
       <c r="C22">
-        <v>4.991124790402068</v>
+        <v>4.924166846653634</v>
       </c>
       <c r="D22">
-        <v>0.4451273659137058</v>
+        <v>0.4412642140406291</v>
       </c>
       <c r="E22">
-        <v>3.358403519929283</v>
+        <v>3.322491998758522</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006421421243176195</v>
       </c>
       <c r="H22">
-        <v>19.19134565832894</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>19.08938993796875</v>
       </c>
       <c r="J22">
-        <v>2.414292053477055</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.374930589729786</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.413946125307064</v>
+        <v>5.317639190374223</v>
       </c>
       <c r="C23">
-        <v>4.713693049162885</v>
+        <v>4.652280617206884</v>
       </c>
       <c r="D23">
-        <v>0.421243963827223</v>
+        <v>0.4177174837059283</v>
       </c>
       <c r="E23">
-        <v>3.15144588477844</v>
+        <v>3.119368634196633</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006524890043548923</v>
       </c>
       <c r="H23">
-        <v>18.22531651264325</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.13651687677714</v>
       </c>
       <c r="J23">
-        <v>2.271993340591848</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.23575080149665</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.241003663283664</v>
+        <v>4.169155230743229</v>
       </c>
       <c r="C24">
-        <v>3.778998504030142</v>
+        <v>3.734218504022238</v>
       </c>
       <c r="D24">
-        <v>0.3399347750074071</v>
+        <v>0.3373843267108043</v>
       </c>
       <c r="E24">
-        <v>2.475280394406838</v>
+        <v>2.453559608208707</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006887803960008137</v>
       </c>
       <c r="H24">
-        <v>14.9193722150091</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.86860369155289</v>
       </c>
       <c r="J24">
-        <v>1.798745595956177</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.771855282020525</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.197778160240318</v>
+        <v>3.14565744044495</v>
       </c>
       <c r="C25">
-        <v>2.917892079903993</v>
+        <v>2.886553144341917</v>
       </c>
       <c r="D25">
-        <v>0.2640391465602505</v>
+        <v>0.2622297752145926</v>
       </c>
       <c r="E25">
-        <v>1.876828848684681</v>
+        <v>1.862189339116597</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007246440839196907</v>
       </c>
       <c r="H25">
-        <v>11.80797516739489</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.78590283093379</v>
       </c>
       <c r="J25">
-        <v>1.371312245712375</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.351994231443939</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.493986971186246</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.330126461616089</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2124602420557409</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.48420225220444</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007498898056692802</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.729029729919489</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.081003226909843</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.091663441804258</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.979118936880013</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1809077201087206</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.249387317112891</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007667638871024497</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.417486106113842</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9120609226661287</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.858538576098965</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.77278428880112</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1623084182680685</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.11254670181691</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007771203082056993</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.641146213758191</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8135238405371581</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.766387167861666</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.690574822344388</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1548879336592961</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.058256676905785</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007813527895852991</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.330661262871303</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.774431862443933</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.751240922849689</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.677025913653665</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.153664437442842</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.049321391034127</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007820566661371764</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.279424249973317</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7679985879715048</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.857285021717047</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.771668515233671</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.162207742354596</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.111808997808524</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007771773237762562</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.636936770558606</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8129926183149223</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.351948235964358</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.206902272948753</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2013965452310913</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.401466124541258</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007557176979395906</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.269872292949913</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.021511550176172</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.470474038974203</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.158844275111505</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2864638327606173</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.049977092042255</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007128261805985147</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.78281181473756</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.485958686526629</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.458359784316713</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.968514290245992</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3579988299556902</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.620760839670467</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006792992827131052</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.70976322633499</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.889350144498522</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.971822484247127</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.379257202637177</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.393954880095464</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.918274304844772</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006630512575726287</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.17264383293201</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.096812037273622</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.179345731665478</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4.543437276042823</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4082580142968624</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3.038865846967724</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006566783031322284</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.75309053703069</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.180262552018604</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.13398574041031</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.507638793795536</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4051427923385944</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3.012486560872901</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000658062293438164</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.62674014415092</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.162041187100101</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.988603818588331</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>4.392571936904858</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3951163540955633</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2.928017274626882</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006625319475951472</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.21980963144347</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.10356859431171</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.901406198509903</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>4.323312865162109</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3890718569067104</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2.877407110627885</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006652381153867597</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.97429079829055</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.068444620934599</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.426382605758874</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>3.942715069074836</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3557324932364452</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2.602263541054512</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006803353244218384</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.61737569107379</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.876382119390428</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.153599250232105</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>3.721553778863836</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3362679560371049</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2.444570856062185</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006892976461574385</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.82299888444336</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.765521770930604</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.002424377147292</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3.598139062310565</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3253783783573851</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2.357234354080859</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006943648395394624</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.37786431213939</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.703898177245748</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.95213207175874</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>3.55694494526449</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3217392753503248</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2.32818489690672</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006960672319693997</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.22899217467065</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.683367508928839</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.182022912269019</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>3.744689723737679</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3383071866430214</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.460995271899108</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006883531113211034</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.9062993229291</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.777093208711221</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.030909847305225</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>4.42610850880169</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3980406502963945</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2.952585950808725</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006612258905950664</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.33853670671493</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.120595436291282</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.665576120499566</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>4.924166846653634</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4412642140406291</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3.322491998758522</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006421421243176195</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.08938993796875</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.374930589729786</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.317639190374223</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>4.652280617206884</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4177174837059283</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>3.119368634196633</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006524890043548923</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.13651687677714</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.23575080149665</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.169155230743229</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>3.734218504022238</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3373843267108043</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2.453559608208707</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006887803960008137</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.86860369155289</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.771855282020525</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.14565744044495</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2.886553144341917</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2622297752145926</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1.862189339116597</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007246440839196907</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.78590283093379</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.351994231443939</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.07576934379091</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1697133001115958</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1984012521749463</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.374312657875606</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008011594687041504</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.149011841911118</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.720055874795634</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.9317590358250243</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1510005832706156</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1717991873835558</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.179032793482904</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008065206503586839</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9974385638221861</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.567120867973415</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.8439286661649135</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.1395457137607679</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1556621482520768</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.061502969389224</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008099021537574775</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9048998446295684</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.479350561128541</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8082588189229511</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1348828826086645</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1491292724801525</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.014114010354646</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008113035658271486</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8672937207813618</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.445011351827219</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8023424621283937</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1341088318888524</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.14804691818847</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.006273117839925</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008115377080093651</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8610547486613882</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.439392410881197</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.8434471517730628</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1394828130361248</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1555738772158008</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.06086193378124</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008099209577769731</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9043922897838002</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.478881813943957</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.025974519512488</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1632516405011302</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1891840507112903</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.306430111637937</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008029899221191675</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.096621874122889</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.665979749217911</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.389968558725343</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.2103215257475739</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2569679055012983</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.811417814815201</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007900675492089975</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.479198522576667</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.087158347488042</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.663188724302699</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.2454711665661193</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3083904673653279</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.203985007300403</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007809162626074786</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.765915084241527</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3.438325273649212</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.789270289467169</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.2616586673762669</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3322549954697962</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.389156255226666</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007768111506909003</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.898133538376356</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3.609317272284329</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.837321175270944</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2678239121262891</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3413707661649426</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.460409148486164</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007752634353994647</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.948511001726416</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3.675890095238287</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.826958087007768</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.2664944220089183</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3394038317264716</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.445009959086093</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007755964871400382</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.937646670457127</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3.661467897803107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.793217021944372</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.2621651334809059</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3330033098044254</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.394994420751658</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007766836922191711</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.902271606949341</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.61475648633774</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.7725911081981</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.2595181496337773</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3290934092111826</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.364511894376434</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007773504743677773</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.880645269096561</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.586388147630601</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.654989111248113</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.2444178290465402</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3068412712658386</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.19203145720742</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007811855797395535</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.757314607195639</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.427393797568186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.583336186055959</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.2352095967449657</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2933186405182227</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.088031752916606</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007835520841089123</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.682148667332569</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.332874454440883</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.542288795591162</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.229931413570327</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2855845064369049</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.028821701135342</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007849187808464463</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.639080220657974</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.27955423469453</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.528417876271078</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.2281472306917607</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2829730573780296</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.008873375759478</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000785382516831942</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.624524841582286</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.26167450251944</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.590946299909689</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.2361879029148355</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.2947535468448024</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.099038535066541</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007832996021720932</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.690132774931129</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>3.342826656237548</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.803118854742735</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.2634357301199515</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.334881067316843</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.409652852510021</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007763641821431343</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.912653285338962</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>3.628425562936059</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.943599420361465</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.2814539396111684</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3615718917340445</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.61936479989923</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007718702905369242</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.059914205861304</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.825813243501329</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.868438738083512</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.2718155114649932</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3472800261781686</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.506755507701669</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007742657636942784</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.981131985054844</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3.719407569476914</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.587505313708704</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.2357455621445013</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.2941047012695321</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.094060573520537</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007834137299367747</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.686522710672136</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3.338324103269827</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.290645488486149</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1975109562079211</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2383830309685351</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.671600332880786</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007934980956406471</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.374885074425947</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.966567448255375</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.07576934379091</v>
+        <v>0.395158389027614</v>
       </c>
       <c r="C2">
-        <v>0.1697133001115958</v>
+        <v>0.05243438464364658</v>
       </c>
       <c r="D2">
-        <v>0.1984012521749463</v>
+        <v>0.0784572293712813</v>
       </c>
       <c r="E2">
-        <v>1.374312657875606</v>
+        <v>0.4117279779247696</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008011594687041504</v>
+        <v>0.002448044911749249</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.149011841911118</v>
+        <v>0.3709183826733238</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.720055874795634</v>
+        <v>3.496825343056088</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9317590358250243</v>
+        <v>0.3548139464674875</v>
       </c>
       <c r="C3">
-        <v>0.1510005832706156</v>
+        <v>0.0466696856260711</v>
       </c>
       <c r="D3">
-        <v>0.1717991873835558</v>
+        <v>0.07117407217988614</v>
       </c>
       <c r="E3">
-        <v>1.179032793482904</v>
+        <v>0.3592284641779031</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008065206503586839</v>
+        <v>0.002451319617835405</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9974385638221861</v>
+        <v>0.32747339459209</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.567120867973415</v>
+        <v>3.480233362765802</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8439286661649135</v>
+        <v>0.3301482408787138</v>
       </c>
       <c r="C4">
-        <v>0.1395457137607679</v>
+        <v>0.04310844417855719</v>
       </c>
       <c r="D4">
-        <v>0.1556621482520768</v>
+        <v>0.06673819535259895</v>
       </c>
       <c r="E4">
-        <v>1.061502969389224</v>
+        <v>0.3270895470033679</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008099021537574775</v>
+        <v>0.002453434886117125</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9048998446295684</v>
+        <v>0.3008400178826207</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.479350561128541</v>
+        <v>3.472161266396057</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8082588189229511</v>
+        <v>0.3201235615563576</v>
       </c>
       <c r="C5">
-        <v>0.1348828826086645</v>
+        <v>0.04165175845837155</v>
       </c>
       <c r="D5">
-        <v>0.1491292724801525</v>
+        <v>0.06493955397233719</v>
       </c>
       <c r="E5">
-        <v>1.014114010354646</v>
+        <v>0.314014947791776</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008113035658271486</v>
+        <v>0.002454323260730585</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8672937207813618</v>
+        <v>0.2899974001738315</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.445011351827219</v>
+        <v>3.469402149964623</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8023424621283937</v>
+        <v>0.3184605943464476</v>
       </c>
       <c r="C6">
-        <v>0.1341088318888524</v>
+        <v>0.0414095478307388</v>
       </c>
       <c r="D6">
-        <v>0.14804691818847</v>
+        <v>0.06464143421638369</v>
       </c>
       <c r="E6">
-        <v>1.006273117839925</v>
+        <v>0.3118452112761361</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008115377080093651</v>
+        <v>0.002454472370672374</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8610547486613882</v>
+        <v>0.288197642099135</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.439392410881197</v>
+        <v>3.468975984146027</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8434471517730628</v>
+        <v>0.3300129358414665</v>
       </c>
       <c r="C7">
-        <v>0.1394828130361248</v>
+        <v>0.04308882086723997</v>
       </c>
       <c r="D7">
-        <v>0.1555738772158008</v>
+        <v>0.0667139017998295</v>
       </c>
       <c r="E7">
-        <v>1.06086193378124</v>
+        <v>0.3269131306605715</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008099209577769731</v>
+        <v>0.002453446760035132</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9043922897838002</v>
+        <v>0.3006937470435105</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.478881813943957</v>
+        <v>3.472121910875615</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.025974519512488</v>
+        <v>0.3812257146403795</v>
       </c>
       <c r="C8">
-        <v>0.1632516405011302</v>
+        <v>0.05045121916515427</v>
       </c>
       <c r="D8">
-        <v>0.1891840507112903</v>
+        <v>0.07593849563612309</v>
       </c>
       <c r="E8">
-        <v>1.306430111637937</v>
+        <v>0.3936050789105394</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008029899221191675</v>
+        <v>0.002449152376195946</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.096621874122889</v>
+        <v>0.3559298932890158</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.665979749217911</v>
+        <v>3.490664377782196</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.389968558725343</v>
+        <v>0.4824932362587049</v>
       </c>
       <c r="C9">
-        <v>0.2103215257475739</v>
+        <v>0.06471729413848948</v>
       </c>
       <c r="D9">
-        <v>0.2569679055012983</v>
+        <v>0.09431646179486108</v>
       </c>
       <c r="E9">
-        <v>1.811417814815201</v>
+        <v>0.525239996082405</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007900675492089975</v>
+        <v>0.002441556965165385</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.479198522576667</v>
+        <v>0.4645812857680482</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.087158347488042</v>
+        <v>3.543890712459842</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.663188724302699</v>
+        <v>0.5574128951548118</v>
       </c>
       <c r="C10">
-        <v>0.2454711665661193</v>
+        <v>0.0750958234608845</v>
       </c>
       <c r="D10">
-        <v>0.3083904673653279</v>
+        <v>0.1080000219128294</v>
       </c>
       <c r="E10">
-        <v>2.203985007300403</v>
+        <v>0.6226060295658158</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007809162626074786</v>
+        <v>0.002436474503841463</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.765915084241527</v>
+        <v>0.5446195630510999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.438325273649212</v>
+        <v>3.593396698710563</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.789270289467169</v>
+        <v>0.5916104020959381</v>
       </c>
       <c r="C11">
-        <v>0.2616586673762669</v>
+        <v>0.07979545041146707</v>
       </c>
       <c r="D11">
-        <v>0.3322549954697962</v>
+        <v>0.1142656305106584</v>
       </c>
       <c r="E11">
-        <v>2.389156255226666</v>
+        <v>0.6670720617880761</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007768111506909003</v>
+        <v>0.002434269280767354</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.898133538376356</v>
+        <v>0.5810796406980785</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.609317272284329</v>
+        <v>3.618203123497153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.837321175270944</v>
+        <v>0.6045768124897961</v>
       </c>
       <c r="C12">
-        <v>0.2678239121262891</v>
+        <v>0.08157198613147898</v>
       </c>
       <c r="D12">
-        <v>0.3413707661649426</v>
+        <v>0.1166442025419059</v>
       </c>
       <c r="E12">
-        <v>2.460409148486164</v>
+        <v>0.6839374234294411</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007752634353994647</v>
+        <v>0.002433449489186747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.948511001726416</v>
+        <v>0.5948933821596825</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.675890095238287</v>
+        <v>3.627927367939265</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.826958087007768</v>
+        <v>0.6017835299568901</v>
       </c>
       <c r="C13">
-        <v>0.2664944220089183</v>
+        <v>0.08118951576417999</v>
       </c>
       <c r="D13">
-        <v>0.3394038317264716</v>
+        <v>0.1161316704343562</v>
       </c>
       <c r="E13">
-        <v>2.445009959086093</v>
+        <v>0.6803039304099201</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007755964871400382</v>
+        <v>0.002433625367855815</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.937646670457127</v>
+        <v>0.5919180318723534</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.661467897803107</v>
+        <v>3.625818344766458</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.793217021944372</v>
+        <v>0.5926768254943227</v>
       </c>
       <c r="C14">
-        <v>0.2621651334809059</v>
+        <v>0.07994166943264247</v>
       </c>
       <c r="D14">
-        <v>0.3330033098044254</v>
+        <v>0.1144611981324459</v>
       </c>
       <c r="E14">
-        <v>2.394994420751658</v>
+        <v>0.6684590314433905</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007766836922191711</v>
+        <v>0.002434201530328778</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.902271606949341</v>
+        <v>0.5822159638968856</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.61475648633774</v>
+        <v>3.618996506618544</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.7725911081981</v>
+        <v>0.5871008579090642</v>
       </c>
       <c r="C15">
-        <v>0.2595181496337773</v>
+        <v>0.07917692233095863</v>
       </c>
       <c r="D15">
-        <v>0.3290934092111826</v>
+        <v>0.113438758101978</v>
       </c>
       <c r="E15">
-        <v>2.364511894376434</v>
+        <v>0.6612072717196185</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007773504743677773</v>
+        <v>0.002434556433831766</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.880645269096561</v>
+        <v>0.5762740883048707</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.586388147630601</v>
+        <v>3.614861042319546</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.654989111248113</v>
+        <v>0.5551803325106732</v>
       </c>
       <c r="C16">
-        <v>0.2444178290465402</v>
+        <v>0.07478825654366972</v>
       </c>
       <c r="D16">
-        <v>0.3068412712658386</v>
+        <v>0.107591376043672</v>
       </c>
       <c r="E16">
-        <v>2.19203145720742</v>
+        <v>0.6197037411215689</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007811855797395535</v>
+        <v>0.002436620762689669</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.757314607195639</v>
+        <v>0.5422378116710149</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.427393797568186</v>
+        <v>3.591821699115826</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.583336186055959</v>
+        <v>0.5356277715143847</v>
       </c>
       <c r="C17">
-        <v>0.2352095967449657</v>
+        <v>0.07209041321847565</v>
       </c>
       <c r="D17">
-        <v>0.2933186405182227</v>
+        <v>0.1040146990343089</v>
       </c>
       <c r="E17">
-        <v>2.088031752916606</v>
+        <v>0.594288623638505</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007835520841089123</v>
+        <v>0.002437914461591997</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.682148667332569</v>
+        <v>0.5213704396381047</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.332874454440883</v>
+        <v>3.578274616441689</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.542288795591162</v>
+        <v>0.5243925993429741</v>
       </c>
       <c r="C18">
-        <v>0.229931413570327</v>
+        <v>0.07053665035547851</v>
       </c>
       <c r="D18">
-        <v>0.2855845064369049</v>
+        <v>0.1019613350803752</v>
       </c>
       <c r="E18">
-        <v>2.028821701135342</v>
+        <v>0.5796867487102588</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007849187808464463</v>
+        <v>0.00243866862175088</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.639080220657974</v>
+        <v>0.5093728173144427</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.27955423469453</v>
+        <v>3.570697739599154</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.528417876271078</v>
+        <v>0.5205904473655778</v>
       </c>
       <c r="C19">
-        <v>0.2281472306917607</v>
+        <v>0.0700102235725808</v>
       </c>
       <c r="D19">
-        <v>0.2829730573780296</v>
+        <v>0.1012667606097182</v>
       </c>
       <c r="E19">
-        <v>2.008873375759478</v>
+        <v>0.5747455296733648</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000785382516831942</v>
+        <v>0.002438925697385486</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.624524841582286</v>
+        <v>0.505311446307303</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.26167450251944</v>
+        <v>3.56816921675329</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.590946299909689</v>
+        <v>0.5377080434783181</v>
       </c>
       <c r="C20">
-        <v>0.2361879029148355</v>
+        <v>0.07237781385563835</v>
       </c>
       <c r="D20">
-        <v>0.2947535468448024</v>
+        <v>0.1043950440520121</v>
       </c>
       <c r="E20">
-        <v>2.099038535066541</v>
+        <v>0.5969924118926144</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007832996021720932</v>
+        <v>0.002437775704633511</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.690132774931129</v>
+        <v>0.5235913175779672</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.342826656237548</v>
+        <v>3.579694456378547</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.803118854742735</v>
+        <v>0.5953512371588658</v>
       </c>
       <c r="C21">
-        <v>0.2634357301199515</v>
+        <v>0.08030827659240458</v>
       </c>
       <c r="D21">
-        <v>0.334881067316843</v>
+        <v>0.1149516952789327</v>
       </c>
       <c r="E21">
-        <v>2.409652852510021</v>
+        <v>0.6719374150171404</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007763641821431343</v>
+        <v>0.002434031883439696</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.912653285338962</v>
+        <v>0.5850655046841098</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.628425562936059</v>
+        <v>3.620991258690538</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.943599420361465</v>
+        <v>0.6331208370745003</v>
       </c>
       <c r="C22">
-        <v>0.2814539396111684</v>
+        <v>0.08547315894580265</v>
       </c>
       <c r="D22">
-        <v>0.3615718917340445</v>
+        <v>0.1218856152535608</v>
       </c>
       <c r="E22">
-        <v>2.61936479989923</v>
+        <v>0.7210768901219922</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007718702905369242</v>
+        <v>0.002431674098427937</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.059914205861304</v>
+        <v>0.6252837786418297</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.825813243501329</v>
+        <v>3.649908917893526</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.868438738083512</v>
+        <v>0.6129537140849664</v>
       </c>
       <c r="C23">
-        <v>0.2718155114649932</v>
+        <v>0.08271822367396453</v>
       </c>
       <c r="D23">
-        <v>0.3472800261781686</v>
+        <v>0.1181816773156896</v>
       </c>
       <c r="E23">
-        <v>2.506755507701669</v>
+        <v>0.6948350311105713</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007742657636942784</v>
+        <v>0.002432924374119306</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.981131985054844</v>
+        <v>0.603814786150906</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.719407569476914</v>
+        <v>3.634297999684179</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.587505313708704</v>
+        <v>0.5367675342756115</v>
       </c>
       <c r="C24">
-        <v>0.2357455621445013</v>
+        <v>0.07224788855418751</v>
       </c>
       <c r="D24">
-        <v>0.2941047012695321</v>
+        <v>0.10422308099389</v>
       </c>
       <c r="E24">
-        <v>2.094060573520537</v>
+        <v>0.5957699994738732</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007834137299367747</v>
+        <v>0.002437838404445892</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.686522710672136</v>
+        <v>0.5225872608125144</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.338324103269827</v>
+        <v>3.579051887960276</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.290645488486149</v>
+        <v>0.4550071581536486</v>
       </c>
       <c r="C25">
-        <v>0.1975109562079211</v>
+        <v>0.06087612532209619</v>
       </c>
       <c r="D25">
-        <v>0.2383830309685351</v>
+        <v>0.08931329060094129</v>
       </c>
       <c r="E25">
-        <v>1.671600332880786</v>
+        <v>0.489524219498648</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007934980956406471</v>
+        <v>0.002443523889318158</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.374885074425947</v>
+        <v>0.4351516234246446</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.966567448255375</v>
+        <v>3.527673798270342</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.395158389027614</v>
+        <v>1.075769343791052</v>
       </c>
       <c r="C2">
-        <v>0.05243438464364658</v>
+        <v>0.1697133001118374</v>
       </c>
       <c r="D2">
-        <v>0.0784572293712813</v>
+        <v>0.1984012521749463</v>
       </c>
       <c r="E2">
-        <v>0.4117279779247696</v>
+        <v>1.374312657875592</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002448044911749249</v>
+        <v>0.0008011594686743453</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3709183826733238</v>
+        <v>1.149011841911062</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.496825343056088</v>
+        <v>2.720055874795577</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3548139464674875</v>
+        <v>0.9317590358250527</v>
       </c>
       <c r="C3">
-        <v>0.0466696856260711</v>
+        <v>0.1510005832706298</v>
       </c>
       <c r="D3">
-        <v>0.07117407217988614</v>
+        <v>0.17179918738357</v>
       </c>
       <c r="E3">
-        <v>0.3592284641779031</v>
+        <v>1.179032793482861</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002451319617835405</v>
+        <v>0.00080652065038954</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.32747339459209</v>
+        <v>0.9974385638221008</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.480233362765802</v>
+        <v>2.567120867973358</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3301482408787138</v>
+        <v>0.8439286661649987</v>
       </c>
       <c r="C4">
-        <v>0.04310844417855719</v>
+        <v>0.1395457137610947</v>
       </c>
       <c r="D4">
-        <v>0.06673819535259895</v>
+        <v>0.1556621482520626</v>
       </c>
       <c r="E4">
-        <v>0.3270895470033679</v>
+        <v>1.06150296938921</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002453434886117125</v>
+        <v>0.0008099021538129373</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3008400178826207</v>
+        <v>0.9048998446296252</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.472161266396057</v>
+        <v>2.47935056112857</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3201235615563576</v>
+        <v>0.8082588189229796</v>
       </c>
       <c r="C5">
-        <v>0.04165175845837155</v>
+        <v>0.1348828826088067</v>
       </c>
       <c r="D5">
-        <v>0.06493955397233719</v>
+        <v>0.1491292724802804</v>
       </c>
       <c r="E5">
-        <v>0.314014947791776</v>
+        <v>1.014114010354604</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002454323260730585</v>
+        <v>0.000811303565858897</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2899974001738315</v>
+        <v>0.8672937207813618</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.469402149964623</v>
+        <v>2.445011351827219</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3184605943464476</v>
+        <v>0.8023424621283652</v>
       </c>
       <c r="C6">
-        <v>0.0414095478307388</v>
+        <v>0.1341088318888524</v>
       </c>
       <c r="D6">
-        <v>0.06464143421638369</v>
+        <v>0.1480469181884558</v>
       </c>
       <c r="E6">
-        <v>0.3118452112761361</v>
+        <v>1.006273117839939</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002454472370672374</v>
+        <v>0.0008115377080083823</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.288197642099135</v>
+        <v>0.8610547486613314</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.468975984146027</v>
+        <v>2.439392410881226</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3300129358414665</v>
+        <v>0.8434471517729492</v>
       </c>
       <c r="C7">
-        <v>0.04308882086723997</v>
+        <v>0.1394828130363521</v>
       </c>
       <c r="D7">
-        <v>0.0667139017998295</v>
+        <v>0.1555738772158577</v>
       </c>
       <c r="E7">
-        <v>0.3269131306605715</v>
+        <v>1.060861933781226</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002453446760035132</v>
+        <v>0.000809920957776992</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3006937470435105</v>
+        <v>0.9043922897838002</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.472121910875615</v>
+        <v>2.478881813943929</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3812257146403795</v>
+        <v>1.025974519512346</v>
       </c>
       <c r="C8">
-        <v>0.05045121916515427</v>
+        <v>0.1632516405012581</v>
       </c>
       <c r="D8">
-        <v>0.07593849563612309</v>
+        <v>0.1891840507110771</v>
       </c>
       <c r="E8">
-        <v>0.3936050789105394</v>
+        <v>1.306430111637951</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002449152376195946</v>
+        <v>0.0008029899221772405</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3559298932890158</v>
+        <v>1.096621874122889</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.490664377782196</v>
+        <v>2.665979749217968</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4824932362587049</v>
+        <v>1.3899685587254</v>
       </c>
       <c r="C9">
-        <v>0.06471729413848948</v>
+        <v>0.2103215257476165</v>
       </c>
       <c r="D9">
-        <v>0.09431646179486108</v>
+        <v>0.2569679055014689</v>
       </c>
       <c r="E9">
-        <v>0.525239996082405</v>
+        <v>1.811417814815158</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002441556965165385</v>
+        <v>0.0007900675492096504</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4645812857680482</v>
+        <v>1.479198522576638</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.543890712459842</v>
+        <v>3.087158347488014</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5574128951548118</v>
+        <v>1.663188724302842</v>
       </c>
       <c r="C10">
-        <v>0.0750958234608845</v>
+        <v>0.2454711665663467</v>
       </c>
       <c r="D10">
-        <v>0.1080000219128294</v>
+        <v>0.3083904673654558</v>
       </c>
       <c r="E10">
-        <v>0.6226060295658158</v>
+        <v>2.203985007300417</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002436474503841463</v>
+        <v>0.000780916262638631</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5446195630510999</v>
+        <v>1.765915084241414</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.593396698710563</v>
+        <v>3.438325273649099</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5916104020959381</v>
+        <v>1.789270289467225</v>
       </c>
       <c r="C11">
-        <v>0.07979545041146707</v>
+        <v>0.2616586673762384</v>
       </c>
       <c r="D11">
-        <v>0.1142656305106584</v>
+        <v>0.3322549954697536</v>
       </c>
       <c r="E11">
-        <v>0.6670720617880761</v>
+        <v>2.389156255226681</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002434269280767354</v>
+        <v>0.0007768111506618699</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5810796406980785</v>
+        <v>1.8981335383763</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.618203123497153</v>
+        <v>3.609317272284329</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6045768124897961</v>
+        <v>1.837321175271001</v>
       </c>
       <c r="C12">
-        <v>0.08157198613147898</v>
+        <v>0.2678239121264312</v>
       </c>
       <c r="D12">
-        <v>0.1166442025419059</v>
+        <v>0.3413707661648289</v>
       </c>
       <c r="E12">
-        <v>0.6839374234294411</v>
+        <v>2.460409148486193</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002433449489186747</v>
+        <v>0.0007752634353629979</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5948933821596825</v>
+        <v>1.948511001726388</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.627927367939265</v>
+        <v>3.675890095238231</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6017835299568901</v>
+        <v>1.826958087007597</v>
       </c>
       <c r="C13">
-        <v>0.08118951576417999</v>
+        <v>0.2664944220089183</v>
       </c>
       <c r="D13">
-        <v>0.1161316704343562</v>
+        <v>0.3394038317266279</v>
       </c>
       <c r="E13">
-        <v>0.6803039304099201</v>
+        <v>2.445009959086079</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002433625367855815</v>
+        <v>0.0007755964871399065</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5919180318723534</v>
+        <v>1.937646670457184</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.625818344766458</v>
+        <v>3.661467897803107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5926768254943227</v>
+        <v>1.793217021944457</v>
       </c>
       <c r="C14">
-        <v>0.07994166943264247</v>
+        <v>0.2621651334810196</v>
       </c>
       <c r="D14">
-        <v>0.1144611981324459</v>
+        <v>0.3330033098044112</v>
       </c>
       <c r="E14">
-        <v>0.6684590314433905</v>
+        <v>2.394994420751686</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002434201530328778</v>
+        <v>0.000776683692209778</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5822159638968856</v>
+        <v>1.902271606949398</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.618996506618544</v>
+        <v>3.614756486337683</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5871008579090642</v>
+        <v>1.772591108198071</v>
       </c>
       <c r="C15">
-        <v>0.07917692233095863</v>
+        <v>0.2595181496336494</v>
       </c>
       <c r="D15">
-        <v>0.113438758101978</v>
+        <v>0.3290934092111684</v>
       </c>
       <c r="E15">
-        <v>0.6612072717196185</v>
+        <v>2.364511894376434</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002434556433831766</v>
+        <v>0.0007773504743961661</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5762740883048707</v>
+        <v>1.880645269096505</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.614861042319546</v>
+        <v>3.586388147630544</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5551803325106732</v>
+        <v>1.654989111248256</v>
       </c>
       <c r="C16">
-        <v>0.07478825654366972</v>
+        <v>0.2444178290466823</v>
       </c>
       <c r="D16">
-        <v>0.107591376043672</v>
+        <v>0.306841271265796</v>
       </c>
       <c r="E16">
-        <v>0.6197037411215689</v>
+        <v>2.192031457207449</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002436620762689669</v>
+        <v>0.0007811855796999098</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5422378116710149</v>
+        <v>1.757314607195497</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.591821699115826</v>
+        <v>3.427393797568158</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5356277715143847</v>
+        <v>1.583336186055959</v>
       </c>
       <c r="C17">
-        <v>0.07209041321847565</v>
+        <v>0.2352095967450651</v>
       </c>
       <c r="D17">
-        <v>0.1040146990343089</v>
+        <v>0.2933186405182227</v>
       </c>
       <c r="E17">
-        <v>0.594288623638505</v>
+        <v>2.088031752916592</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002437914461591997</v>
+        <v>0.0007835520841716469</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5213704396381047</v>
+        <v>1.682148667332598</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.578274616441689</v>
+        <v>3.332874454440855</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5243925993429741</v>
+        <v>1.542288795591134</v>
       </c>
       <c r="C18">
-        <v>0.07053665035547851</v>
+        <v>0.2299314135703128</v>
       </c>
       <c r="D18">
-        <v>0.1019613350803752</v>
+        <v>0.2855845064369049</v>
       </c>
       <c r="E18">
-        <v>0.5796867487102588</v>
+        <v>2.028821701135342</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00243866862175088</v>
+        <v>0.0007849187808469298</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5093728173144427</v>
+        <v>1.63908022065803</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.570697739599154</v>
+        <v>3.27955423469453</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5205904473655778</v>
+        <v>1.528417876271021</v>
       </c>
       <c r="C19">
-        <v>0.0700102235725808</v>
+        <v>0.2281472306920023</v>
       </c>
       <c r="D19">
-        <v>0.1012667606097182</v>
+        <v>0.2829730573780012</v>
       </c>
       <c r="E19">
-        <v>0.5747455296733648</v>
+        <v>2.008873375759478</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002438925697385486</v>
+        <v>0.0007853825168586353</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.505311446307303</v>
+        <v>1.624524841582371</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.56816921675329</v>
+        <v>3.261674502519497</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5377080434783181</v>
+        <v>1.590946299909746</v>
       </c>
       <c r="C20">
-        <v>0.07237781385563835</v>
+        <v>0.2361879029149776</v>
       </c>
       <c r="D20">
-        <v>0.1043950440520121</v>
+        <v>0.2947535468445039</v>
       </c>
       <c r="E20">
-        <v>0.5969924118926144</v>
+        <v>2.099038535066612</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002437775704633511</v>
+        <v>0.0007832996021065464</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5235913175779672</v>
+        <v>1.690132774931044</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.579694456378547</v>
+        <v>3.342826656237463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5953512371588658</v>
+        <v>1.803118854742735</v>
       </c>
       <c r="C21">
-        <v>0.08030827659240458</v>
+        <v>0.2634357301200652</v>
       </c>
       <c r="D21">
-        <v>0.1149516952789327</v>
+        <v>0.3348810673168288</v>
       </c>
       <c r="E21">
-        <v>0.6719374150171404</v>
+        <v>2.40965285251005</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002434031883439696</v>
+        <v>0.0007763641821430366</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5850655046841098</v>
+        <v>1.912653285338877</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.620991258690538</v>
+        <v>3.628425562936059</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6331208370745003</v>
+        <v>1.943599420361579</v>
       </c>
       <c r="C22">
-        <v>0.08547315894580265</v>
+        <v>0.2814539396110689</v>
       </c>
       <c r="D22">
-        <v>0.1218856152535608</v>
+        <v>0.3615718917340587</v>
       </c>
       <c r="E22">
-        <v>0.7210768901219922</v>
+        <v>2.619364799899202</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002431674098427937</v>
+        <v>0.0007718702905469766</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6252837786418297</v>
+        <v>2.059914205861332</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.649908917893526</v>
+        <v>3.825813243501443</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6129537140849664</v>
+        <v>1.868438738083597</v>
       </c>
       <c r="C23">
-        <v>0.08271822367396453</v>
+        <v>0.2718155114650074</v>
       </c>
       <c r="D23">
-        <v>0.1181816773156896</v>
+        <v>0.347280026178268</v>
       </c>
       <c r="E23">
-        <v>0.6948350311105713</v>
+        <v>2.506755507701655</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002432924374119306</v>
+        <v>0.0007742657636948748</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.603814786150906</v>
+        <v>1.981131985054816</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.634297999684179</v>
+        <v>3.719407569476971</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5367675342756115</v>
+        <v>1.587505313708704</v>
       </c>
       <c r="C24">
-        <v>0.07224788855418751</v>
+        <v>0.2357455621443876</v>
       </c>
       <c r="D24">
-        <v>0.10422308099389</v>
+        <v>0.2941047012696458</v>
       </c>
       <c r="E24">
-        <v>0.5957699994738732</v>
+        <v>2.094060573520466</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002437838404445892</v>
+        <v>0.0007834137299353902</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5225872608125144</v>
+        <v>1.686522710672108</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.579051887960276</v>
+        <v>3.338324103269855</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4550071581536486</v>
+        <v>1.290645488486177</v>
       </c>
       <c r="C25">
-        <v>0.06087612532209619</v>
+        <v>0.1975109562078075</v>
       </c>
       <c r="D25">
-        <v>0.08931329060094129</v>
+        <v>0.238383030968734</v>
       </c>
       <c r="E25">
-        <v>0.489524219498648</v>
+        <v>1.671600332880786</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002443523889318158</v>
+        <v>0.0007934980956402771</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4351516234246446</v>
+        <v>1.374885074426061</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.527673798270342</v>
+        <v>2.966567448255432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.075769343791052</v>
+        <v>0.6949052356417269</v>
       </c>
       <c r="C2">
-        <v>0.1697133001118374</v>
+        <v>0.2227137255147085</v>
       </c>
       <c r="D2">
-        <v>0.1984012521749463</v>
+        <v>0.1928193801424811</v>
       </c>
       <c r="E2">
-        <v>1.374312657875592</v>
+        <v>0.3340122839850324</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008011594686743453</v>
+        <v>1.660202931812989</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0007729857052720668</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004670935397334652</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.023371578228989</v>
       </c>
       <c r="K2">
-        <v>1.149011841911062</v>
+        <v>1.067329743661759</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9055333606781062</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.720055874795577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5873064688850604</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9317590358250527</v>
+        <v>0.6041784370790424</v>
       </c>
       <c r="C3">
-        <v>0.1510005832706298</v>
+        <v>0.1924963388341041</v>
       </c>
       <c r="D3">
-        <v>0.17179918738357</v>
+        <v>0.1672746909118104</v>
       </c>
       <c r="E3">
-        <v>1.179032793482861</v>
+        <v>0.2896948615589849</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00080652065038954</v>
+        <v>1.522190771481547</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001921051251848382</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007251786545062089</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.9612761552759252</v>
       </c>
       <c r="K3">
-        <v>0.9974385638221008</v>
+        <v>0.9978295445528644</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7863658633939394</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.567120867973358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5104352036965096</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8439286661649987</v>
+        <v>0.5484459031038398</v>
       </c>
       <c r="C4">
-        <v>0.1395457137610947</v>
+        <v>0.1743020530812345</v>
       </c>
       <c r="D4">
-        <v>0.1556621482520626</v>
+        <v>0.1517390651324177</v>
       </c>
       <c r="E4">
-        <v>1.06150296938921</v>
+        <v>0.2626000588722306</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008099021538129373</v>
+        <v>1.437353613971482</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002916186914242447</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.009236786290101939</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.9231504746912833</v>
       </c>
       <c r="K4">
-        <v>0.9048998446296252</v>
+        <v>0.9548773421214563</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7135448925329229</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.47935056112857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4633712485593691</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8082588189229796</v>
+        <v>0.5254796695524817</v>
       </c>
       <c r="C5">
-        <v>0.1348828826088067</v>
+        <v>0.1673717925993259</v>
       </c>
       <c r="D5">
-        <v>0.1491292724802804</v>
+        <v>0.1454395187096509</v>
       </c>
       <c r="E5">
-        <v>1.014114010354604</v>
+        <v>0.2515379799898625</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000811303565858897</v>
+        <v>1.399981407093108</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003393216225451967</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01022921230987173</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9062017933444935</v>
       </c>
       <c r="K5">
-        <v>0.8672937207813618</v>
+        <v>0.9353701125738709</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6841983964064156</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.445011351827219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4442752346503198</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8023424621283652</v>
+        <v>0.521369686502311</v>
       </c>
       <c r="C6">
-        <v>0.1341088318888524</v>
+        <v>0.1667193557063484</v>
       </c>
       <c r="D6">
-        <v>0.1480469181884558</v>
+        <v>0.1443934182674269</v>
       </c>
       <c r="E6">
-        <v>1.006273117839939</v>
+        <v>0.2496488497648457</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008115377080083823</v>
+        <v>1.390400438139821</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003479340964632538</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01051432335336155</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.9016697447812874</v>
       </c>
       <c r="K6">
-        <v>0.8610547486613314</v>
+        <v>0.9297716400778668</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6796431294499996</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.439392410881226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4411754507767114</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8434471517729492</v>
+        <v>0.5473249749665285</v>
       </c>
       <c r="C7">
-        <v>0.1394828130363521</v>
+        <v>0.175558354354834</v>
       </c>
       <c r="D7">
-        <v>0.1555738772158577</v>
+        <v>0.1516484302661496</v>
       </c>
       <c r="E7">
-        <v>1.060861933781226</v>
+        <v>0.2623032925976432</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000809920957776992</v>
+        <v>1.427622797964986</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002929297810390308</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.009544234415429287</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.9182280088838439</v>
       </c>
       <c r="K7">
-        <v>0.9043922897838002</v>
+        <v>0.9481734893127154</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7140058616605103</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.478881813943929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4633042001153385</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.025974519512346</v>
+        <v>0.6625315767622055</v>
       </c>
       <c r="C8">
-        <v>0.1632516405012581</v>
+        <v>0.2140136628245415</v>
       </c>
       <c r="D8">
-        <v>0.1891840507110771</v>
+        <v>0.1839691141322817</v>
       </c>
       <c r="E8">
-        <v>1.306430111637951</v>
+        <v>0.3185021229920224</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008029899221772405</v>
+        <v>1.600368399831183</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001111759074411633</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005819502260692389</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.995736727853739</v>
       </c>
       <c r="K8">
-        <v>1.096621874122889</v>
+        <v>1.03487150746831</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8654970283995169</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.665979749217968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5610204342532583</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.3899685587254</v>
+        <v>0.8900735238991331</v>
       </c>
       <c r="C9">
-        <v>0.2103215257476165</v>
+        <v>0.2902580878271976</v>
       </c>
       <c r="D9">
-        <v>0.2569679055014689</v>
+        <v>0.2487625728351333</v>
       </c>
       <c r="E9">
-        <v>1.811417814815158</v>
+        <v>0.4302071757189552</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007900675492096504</v>
+        <v>1.955755023444851</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.466601807693536E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001499817430495654</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.156518291790491</v>
       </c>
       <c r="K9">
-        <v>1.479198522576638</v>
+        <v>1.214554808507259</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.164537771214071</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.087158347488014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7537666921807329</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.663188724302842</v>
+        <v>1.064103372361046</v>
       </c>
       <c r="C10">
-        <v>0.2454711665663467</v>
+        <v>0.3479649337218405</v>
       </c>
       <c r="D10">
-        <v>0.3083904673654558</v>
+        <v>0.2974725526758704</v>
       </c>
       <c r="E10">
-        <v>2.203985007300417</v>
+        <v>0.4802294589268215</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000780916262638631</v>
+        <v>2.165753443427377</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001058087345138681</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0008922493228462614</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.249104007899518</v>
       </c>
       <c r="K10">
-        <v>1.765915084241414</v>
+        <v>1.313787703067732</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.392169745487223</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.438325273649099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8666197465345817</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.789270289467225</v>
+        <v>1.202580150803158</v>
       </c>
       <c r="C11">
-        <v>0.2616586673762384</v>
+        <v>0.3631007954613494</v>
       </c>
       <c r="D11">
-        <v>0.3322549954697536</v>
+        <v>0.3193421139478403</v>
       </c>
       <c r="E11">
-        <v>2.389156255226681</v>
+        <v>0.2590313749748958</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007768111506618699</v>
+        <v>1.850456008705464</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01934438479149847</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001472382570349318</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.084422942574577</v>
       </c>
       <c r="K11">
-        <v>1.8981335383763</v>
+        <v>1.110567243228715</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.536660172295683</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.609317272284329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.672302711565294</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.837321175271001</v>
+        <v>1.287698786628482</v>
       </c>
       <c r="C12">
-        <v>0.2678239121264312</v>
+        <v>0.3613160323847353</v>
       </c>
       <c r="D12">
-        <v>0.3413707661648289</v>
+        <v>0.3274511344955187</v>
       </c>
       <c r="E12">
-        <v>2.460409148486193</v>
+        <v>0.1213809415357794</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007752634353629979</v>
+        <v>1.575628933862305</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05775010008039771</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001480894147685596</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.9432587910652899</v>
       </c>
       <c r="K12">
-        <v>1.948511001726388</v>
+        <v>0.9430953217985092</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.611219534987129</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.675890095238231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5072728241390081</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.826958087007597</v>
+        <v>1.334420194106201</v>
       </c>
       <c r="C13">
-        <v>0.2664944220089183</v>
+        <v>0.3485411655382791</v>
       </c>
       <c r="D13">
-        <v>0.3394038317266279</v>
+        <v>0.3252730055853874</v>
       </c>
       <c r="E13">
-        <v>2.445009959086079</v>
+        <v>0.03962752205987208</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007755964871399065</v>
+        <v>1.30216839367381</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.113254750670265</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001392557866529032</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.8048528684049074</v>
       </c>
       <c r="K13">
-        <v>1.937646670457184</v>
+        <v>0.7835710064248715</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.636807074870006</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.661467897803107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.356600423866368</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.793217021944457</v>
+        <v>1.349483528672152</v>
       </c>
       <c r="C14">
-        <v>0.2621651334810196</v>
+        <v>0.3351619804051609</v>
       </c>
       <c r="D14">
-        <v>0.3330033098044112</v>
+        <v>0.3191048870369428</v>
       </c>
       <c r="E14">
-        <v>2.394994420751686</v>
+        <v>0.015675234110758</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000776683692209778</v>
+        <v>1.113567429013031</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624822600577573</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001415963031016432</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7101655829441995</v>
       </c>
       <c r="K14">
-        <v>1.902271606949398</v>
+        <v>0.6768207933461738</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.632897877514665</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.614756486337683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2617592502563113</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.772591108198071</v>
+        <v>1.343968452963992</v>
       </c>
       <c r="C15">
-        <v>0.2595181496336494</v>
+        <v>0.3301387611826101</v>
       </c>
       <c r="D15">
-        <v>0.3290934092111684</v>
+        <v>0.3154108768643624</v>
       </c>
       <c r="E15">
-        <v>2.364511894376434</v>
+        <v>0.01410926138400548</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007773504743961661</v>
+        <v>1.063141520598066</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749584971498734</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001543546105189364</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6853181402562711</v>
       </c>
       <c r="K15">
-        <v>1.880645269096505</v>
+        <v>0.6491895104280871</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.621528784500782</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.586388147630544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2390563540651414</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.654989111248256</v>
+        <v>1.256788738306369</v>
       </c>
       <c r="C16">
-        <v>0.2444178290466823</v>
+        <v>0.3088299138718753</v>
       </c>
       <c r="D16">
-        <v>0.306841271265796</v>
+        <v>0.2946066332980308</v>
       </c>
       <c r="E16">
-        <v>2.192031457207449</v>
+        <v>0.01291615758270848</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007811855796999098</v>
+        <v>1.029706800569073</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621291354874046</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001852355865400668</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6737383458352042</v>
       </c>
       <c r="K16">
-        <v>1.757314607195497</v>
+        <v>0.6390233053478767</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.517178443752414</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.427393797568158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2269571183390724</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.583336186055959</v>
+        <v>1.182150392982095</v>
       </c>
       <c r="C17">
-        <v>0.2352095967450651</v>
+        <v>0.2996813300388794</v>
       </c>
       <c r="D17">
-        <v>0.2933186405182227</v>
+        <v>0.2820135807882878</v>
       </c>
       <c r="E17">
-        <v>2.088031752916592</v>
+        <v>0.01889371410770657</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007835520841716469</v>
+        <v>1.10100613702879</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.124325160829585</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002145600589290808</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7136933081911252</v>
       </c>
       <c r="K17">
-        <v>1.682148667332598</v>
+        <v>0.6858023027782707</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.439556167910439</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.332874454440855</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2650115585861528</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.542288795591134</v>
+        <v>1.111799159644164</v>
       </c>
       <c r="C18">
-        <v>0.2299314135703128</v>
+        <v>0.2986894045487531</v>
       </c>
       <c r="D18">
-        <v>0.2855845064369049</v>
+        <v>0.2749503399816149</v>
       </c>
       <c r="E18">
-        <v>2.028821701135342</v>
+        <v>0.06029995869317517</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007849187808469298</v>
+        <v>1.287406858701345</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07144658758494415</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002000678229070019</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.8108074733039814</v>
       </c>
       <c r="K18">
-        <v>1.63908022065803</v>
+        <v>0.7984904808096118</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.375795684622886</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.27955423469453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3621442947067237</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.528417876271021</v>
+        <v>1.049949203231876</v>
       </c>
       <c r="C19">
-        <v>0.2281472306920023</v>
+        <v>0.3070121275886777</v>
       </c>
       <c r="D19">
-        <v>0.2829730573780012</v>
+        <v>0.2728047598377259</v>
       </c>
       <c r="E19">
-        <v>2.008873375759478</v>
+        <v>0.1704944911575339</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007853825168586353</v>
+        <v>1.557927798022888</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616595084244722</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002017792297017706</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9488463703340528</v>
       </c>
       <c r="K19">
-        <v>1.624524841582371</v>
+        <v>0.9595313853760317</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.330548411379141</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.261674502519497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5186505149869234</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.590946299909746</v>
+        <v>1.015922636485186</v>
       </c>
       <c r="C20">
-        <v>0.2361879029149776</v>
+        <v>0.3368750062309971</v>
       </c>
       <c r="D20">
-        <v>0.2947535468445039</v>
+        <v>0.2845558905067094</v>
       </c>
       <c r="E20">
-        <v>2.099038535066612</v>
+        <v>0.4651276715874602</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007832996021065464</v>
+        <v>2.079706977200345</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0006410773565361794</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001675454014045563</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.209174760572409</v>
       </c>
       <c r="K20">
-        <v>1.690132774931044</v>
+        <v>1.266549755971013</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.334981189540201</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.342826656237463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8362402131566142</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.803118854742735</v>
+        <v>1.140063491069242</v>
       </c>
       <c r="C21">
-        <v>0.2634357301200652</v>
+        <v>0.3837487207590016</v>
       </c>
       <c r="D21">
-        <v>0.3348810673168288</v>
+        <v>0.3225142949593618</v>
       </c>
       <c r="E21">
-        <v>2.40965285251005</v>
+        <v>0.5553736642633282</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007763641821430366</v>
+        <v>2.321374857128433</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001993346415780195</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001885010272131282</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.320774337220314</v>
       </c>
       <c r="K21">
-        <v>1.912653285338877</v>
+        <v>1.391432829694111</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.503831143168156</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.628425562936059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9702059580538673</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.943599420361579</v>
+        <v>1.226004935078976</v>
       </c>
       <c r="C22">
-        <v>0.2814539396110689</v>
+        <v>0.4124496064002585</v>
       </c>
       <c r="D22">
-        <v>0.3615718917340587</v>
+        <v>0.34762852085872</v>
       </c>
       <c r="E22">
-        <v>2.619364799899202</v>
+        <v>0.5980791186896539</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007718702905469766</v>
+        <v>2.467936432692966</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003320934044483081</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002289579746992843</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.388002327193902</v>
       </c>
       <c r="K22">
-        <v>2.059914205861332</v>
+        <v>1.466909803703373</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.616233234445957</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.825813243501443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.042573614704018</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.868438738083597</v>
+        <v>1.181132323887567</v>
       </c>
       <c r="C23">
-        <v>0.2718155114650074</v>
+        <v>0.3954200913829879</v>
       </c>
       <c r="D23">
-        <v>0.347280026178268</v>
+        <v>0.3342057341453</v>
       </c>
       <c r="E23">
-        <v>2.506755507701655</v>
+        <v>0.5754498621652004</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007742657636948748</v>
+        <v>2.400654338716095</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.00257916198693886</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001727220734980328</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.357635991169872</v>
       </c>
       <c r="K23">
-        <v>1.981131985054816</v>
+        <v>1.434266561761262</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.555144138671267</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.719407569476971</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.003681074304929</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.587505313708704</v>
+        <v>1.010196013389816</v>
       </c>
       <c r="C24">
-        <v>0.2357455621443876</v>
+        <v>0.3348648084282502</v>
       </c>
       <c r="D24">
-        <v>0.2941047012696458</v>
+        <v>0.2840107508566092</v>
       </c>
       <c r="E24">
-        <v>2.094060573520466</v>
+        <v>0.4901843404673087</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007834137299353902</v>
+        <v>2.130156323054564</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.000591658146197549</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001174964373062082</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.234743661516632</v>
       </c>
       <c r="K24">
-        <v>1.686522710672108</v>
+        <v>1.298909433112513</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.327301561178331</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.338324103269855</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8576799656075593</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.290645488486177</v>
+        <v>0.826925633384235</v>
       </c>
       <c r="C25">
-        <v>0.1975109562078075</v>
+        <v>0.2717061854409053</v>
       </c>
       <c r="D25">
-        <v>0.238383030968734</v>
+        <v>0.2310369874995644</v>
       </c>
       <c r="E25">
-        <v>1.671600332880786</v>
+        <v>0.3995249069045315</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007934980956402771</v>
+        <v>1.842693565271105</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.748795261631187E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00272833348800372</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.10443106583557</v>
       </c>
       <c r="K25">
-        <v>1.374885074426061</v>
+        <v>1.154411118322486</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.08470229707234</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.966567448255432</v>
+        <v>0.7017518920082111</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6949052356417269</v>
+        <v>0.6708327923927015</v>
       </c>
       <c r="C2">
-        <v>0.2227137255147085</v>
+        <v>0.2818974683157762</v>
       </c>
       <c r="D2">
-        <v>0.1928193801424811</v>
+        <v>0.1932703236934827</v>
       </c>
       <c r="E2">
-        <v>0.3340122839850324</v>
+        <v>0.3316908316216285</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.660202931812989</v>
+        <v>1.235728422060347</v>
       </c>
       <c r="H2">
-        <v>0.0007729857052720668</v>
+        <v>0.0005512733886909871</v>
       </c>
       <c r="I2">
-        <v>0.004670935397334652</v>
+        <v>0.003130214326752423</v>
       </c>
       <c r="J2">
-        <v>1.023371578228989</v>
+        <v>0.8350240857578939</v>
       </c>
       <c r="K2">
-        <v>1.067329743661759</v>
+        <v>0.7738154143687694</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3344688364484867</v>
       </c>
       <c r="M2">
-        <v>0.9055333606781062</v>
+        <v>0.2497012194504649</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5873064688850604</v>
+        <v>0.9511570982314765</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5980621030528539</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6041784370790424</v>
+        <v>0.5859865663299502</v>
       </c>
       <c r="C3">
-        <v>0.1924963388341041</v>
+        <v>0.2418189296876108</v>
       </c>
       <c r="D3">
-        <v>0.1672746909118104</v>
+        <v>0.1677591060915802</v>
       </c>
       <c r="E3">
-        <v>0.2896948615589849</v>
+        <v>0.288613745389263</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.522190771481547</v>
+        <v>1.15531434258979</v>
       </c>
       <c r="H3">
-        <v>0.001921051251848382</v>
+        <v>0.001481064263987752</v>
       </c>
       <c r="I3">
-        <v>0.007251786545062089</v>
+        <v>0.004852520233479041</v>
       </c>
       <c r="J3">
-        <v>0.9612761552759252</v>
+        <v>0.7939717262210877</v>
       </c>
       <c r="K3">
-        <v>0.9978295445528644</v>
+        <v>0.740148376217789</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3297241453238158</v>
       </c>
       <c r="M3">
-        <v>0.7863658633939394</v>
+        <v>0.2304417510483532</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5104352036965096</v>
+        <v>0.8260089551235126</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5197940302906687</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5484459031038398</v>
+        <v>0.5337292063335326</v>
       </c>
       <c r="C4">
-        <v>0.1743020530812345</v>
+        <v>0.2176802385479562</v>
       </c>
       <c r="D4">
-        <v>0.1517390651324177</v>
+        <v>0.1522293208773533</v>
       </c>
       <c r="E4">
-        <v>0.2626000588722306</v>
+        <v>0.2622223242519937</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.437353613971482</v>
+        <v>1.105834966764334</v>
       </c>
       <c r="H4">
-        <v>0.002916186914242447</v>
+        <v>0.002305648474723476</v>
       </c>
       <c r="I4">
-        <v>0.009236786290101939</v>
+        <v>0.006211457822713928</v>
       </c>
       <c r="J4">
-        <v>0.9231504746912833</v>
+        <v>0.7683927318099961</v>
       </c>
       <c r="K4">
-        <v>0.9548773421214563</v>
+        <v>0.7190949247667362</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3264092719735601</v>
       </c>
       <c r="M4">
-        <v>0.7135448925329229</v>
+        <v>0.2192654638220333</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4633712485593691</v>
+        <v>0.7494312322328653</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.471846876625392</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5254796695524817</v>
+        <v>0.512178811474115</v>
       </c>
       <c r="C5">
-        <v>0.1673717925993259</v>
+        <v>0.2083600086089916</v>
       </c>
       <c r="D5">
-        <v>0.1454395187096509</v>
+        <v>0.1459292173156541</v>
       </c>
       <c r="E5">
-        <v>0.2515379799898625</v>
+        <v>0.2514387719333442</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.399981407093108</v>
+        <v>1.083562798190584</v>
       </c>
       <c r="H5">
-        <v>0.003393216225451967</v>
+        <v>0.002703984681698746</v>
       </c>
       <c r="I5">
-        <v>0.01022921230987173</v>
+        <v>0.006934383827244872</v>
       </c>
       <c r="J5">
-        <v>0.9062017933444935</v>
+        <v>0.7567823082855369</v>
       </c>
       <c r="K5">
-        <v>0.9353701125738709</v>
+        <v>0.7090237464347027</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.324362247039069</v>
       </c>
       <c r="M5">
-        <v>0.6841983964064156</v>
+        <v>0.2144230408452827</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4442752346503198</v>
+        <v>0.718510066785953</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4523790017229032</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.521369686502311</v>
+        <v>0.5083402483753616</v>
       </c>
       <c r="C6">
-        <v>0.1667193557063484</v>
+        <v>0.207318630307995</v>
       </c>
       <c r="D6">
-        <v>0.1443934182674269</v>
+        <v>0.144883152589145</v>
       </c>
       <c r="E6">
-        <v>0.2496488497648457</v>
+        <v>0.2496015342039044</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.390400438139821</v>
+        <v>1.077334166693163</v>
       </c>
       <c r="H6">
-        <v>0.003479340964632538</v>
+        <v>0.002775832486956897</v>
       </c>
       <c r="I6">
-        <v>0.01051432335336155</v>
+        <v>0.00718598784957436</v>
       </c>
       <c r="J6">
-        <v>0.9016697447812874</v>
+        <v>0.7535156975608572</v>
       </c>
       <c r="K6">
-        <v>0.9297716400778668</v>
+        <v>0.7056451339635785</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3232909670291377</v>
       </c>
       <c r="M6">
-        <v>0.6796431294499996</v>
+        <v>0.2130796936673001</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4411754507767114</v>
+        <v>0.7136610863658461</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4492091170927708</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5473249749665285</v>
+        <v>0.5329876556876627</v>
       </c>
       <c r="C7">
-        <v>0.175558354354834</v>
+        <v>0.2182977992017641</v>
       </c>
       <c r="D7">
-        <v>0.1516484302661496</v>
+        <v>0.1521364822356333</v>
       </c>
       <c r="E7">
-        <v>0.2623032925976432</v>
+        <v>0.2619679624929532</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.427622797964986</v>
+        <v>1.101281521507715</v>
       </c>
       <c r="H7">
-        <v>0.002929297810390308</v>
+        <v>0.002319326408455558</v>
       </c>
       <c r="I7">
-        <v>0.009544234415429287</v>
+        <v>0.006558043318853457</v>
       </c>
       <c r="J7">
-        <v>0.9182280088838439</v>
+        <v>0.7553210026268857</v>
       </c>
       <c r="K7">
-        <v>0.9481734893127154</v>
+        <v>0.71207677882947</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3234909330132254</v>
       </c>
       <c r="M7">
-        <v>0.7140058616605103</v>
+        <v>0.2169324682502776</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4633042001153385</v>
+        <v>0.7493693847521001</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4716628142091679</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6625315767622055</v>
+        <v>0.6415153246671821</v>
       </c>
       <c r="C8">
-        <v>0.2140136628245415</v>
+        <v>0.2676976066733516</v>
       </c>
       <c r="D8">
-        <v>0.1839691141322817</v>
+        <v>0.1844246082386576</v>
       </c>
       <c r="E8">
-        <v>0.3185021229920224</v>
+        <v>0.316715918032763</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.600368399831183</v>
+        <v>1.207838148044587</v>
       </c>
       <c r="H8">
-        <v>0.001111759074411633</v>
+        <v>0.0008273602444253125</v>
       </c>
       <c r="I8">
-        <v>0.005819502260692389</v>
+        <v>0.004071029172789231</v>
       </c>
       <c r="J8">
-        <v>0.995736727853739</v>
+        <v>0.785702723711168</v>
       </c>
       <c r="K8">
-        <v>1.03487150746831</v>
+        <v>0.7488398705382409</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3275367171637598</v>
       </c>
       <c r="M8">
-        <v>0.8654970283995169</v>
+        <v>0.2382240895644649</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5610204342532583</v>
+        <v>0.9075613196364429</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5709657604718856</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8900735238991331</v>
+        <v>0.8536277495933291</v>
       </c>
       <c r="C9">
-        <v>0.2902580878271976</v>
+        <v>0.3685194321134588</v>
       </c>
       <c r="D9">
-        <v>0.2487625728351333</v>
+        <v>0.2490200913104843</v>
       </c>
       <c r="E9">
-        <v>0.4302071757189552</v>
+        <v>0.4249374409075273</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.955755023444851</v>
+        <v>1.419265219866389</v>
       </c>
       <c r="H9">
-        <v>2.466601807693536E-05</v>
+        <v>4.928760363132056E-05</v>
       </c>
       <c r="I9">
-        <v>0.001499817430495654</v>
+        <v>0.001227435355238171</v>
       </c>
       <c r="J9">
-        <v>1.156518291790491</v>
+        <v>0.882004402801897</v>
       </c>
       <c r="K9">
-        <v>1.214554808507259</v>
+        <v>0.8343737364318145</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3389607821878968</v>
       </c>
       <c r="M9">
-        <v>1.164537771214071</v>
+        <v>0.290820318951198</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7537666921807329</v>
+        <v>1.220577966513645</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.766932609614301</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.064103372361046</v>
+        <v>1.017582551126452</v>
       </c>
       <c r="C10">
-        <v>0.3479649337218405</v>
+        <v>0.4393825910376847</v>
       </c>
       <c r="D10">
-        <v>0.2974725526758704</v>
+        <v>0.2974434787945199</v>
       </c>
       <c r="E10">
-        <v>0.4802294589268215</v>
+        <v>0.4725482563380581</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.165753443427377</v>
+        <v>1.55572284551701</v>
       </c>
       <c r="H10">
-        <v>0.001058087345138681</v>
+        <v>0.001066969582034893</v>
       </c>
       <c r="I10">
-        <v>0.0008922493228462614</v>
+        <v>0.001093756028419435</v>
       </c>
       <c r="J10">
-        <v>1.249104007899518</v>
+        <v>0.8818668985915679</v>
       </c>
       <c r="K10">
-        <v>1.313787703067732</v>
+        <v>0.8631809304174567</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3338964952738692</v>
       </c>
       <c r="M10">
-        <v>1.392169745487223</v>
+        <v>0.3199976763627248</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8666197465345817</v>
+        <v>1.454511813054523</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8809199773038685</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.202580150803158</v>
+        <v>1.159832914116436</v>
       </c>
       <c r="C11">
-        <v>0.3631007954613494</v>
+        <v>0.439897011661742</v>
       </c>
       <c r="D11">
-        <v>0.3193421139478403</v>
+        <v>0.3192202303954161</v>
       </c>
       <c r="E11">
-        <v>0.2590313749748958</v>
+        <v>0.2538471043615687</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.850456008705464</v>
+        <v>1.361459928170945</v>
       </c>
       <c r="H11">
-        <v>0.01934438479149847</v>
+        <v>0.01932838215972765</v>
       </c>
       <c r="I11">
-        <v>0.001472382570349318</v>
+        <v>0.001810268119243119</v>
       </c>
       <c r="J11">
-        <v>1.084422942574577</v>
+        <v>0.6749713061424956</v>
       </c>
       <c r="K11">
-        <v>1.110567243228715</v>
+        <v>0.7058459632085885</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2721773662601237</v>
       </c>
       <c r="M11">
-        <v>1.536660172295683</v>
+        <v>0.2651991949622001</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.672302711565294</v>
+        <v>1.591217123135152</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.682834515029846</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.287698786628482</v>
+        <v>1.24973311479377</v>
       </c>
       <c r="C12">
-        <v>0.3613160323847353</v>
+        <v>0.4254210902189755</v>
       </c>
       <c r="D12">
-        <v>0.3274511344955187</v>
+        <v>0.3273324337338579</v>
       </c>
       <c r="E12">
-        <v>0.1213809415357794</v>
+        <v>0.1182463061063395</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.575628933862305</v>
+        <v>1.180674056281831</v>
       </c>
       <c r="H12">
-        <v>0.05775010008039771</v>
+        <v>0.05773893595885227</v>
       </c>
       <c r="I12">
-        <v>0.001480894147685596</v>
+        <v>0.001821591285886548</v>
       </c>
       <c r="J12">
-        <v>0.9432587910652899</v>
+        <v>0.5536253623745893</v>
       </c>
       <c r="K12">
-        <v>0.9430953217985092</v>
+        <v>0.5933498554041705</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2313934517626883</v>
       </c>
       <c r="M12">
-        <v>1.611219534987129</v>
+        <v>0.2221949347233902</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5072728241390081</v>
+        <v>1.659074350079948</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5151391568281198</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.334420194106201</v>
+        <v>1.301486970982353</v>
       </c>
       <c r="C13">
-        <v>0.3485411655382791</v>
+        <v>0.402328519629009</v>
       </c>
       <c r="D13">
-        <v>0.3252730055853874</v>
+        <v>0.3252498854405985</v>
       </c>
       <c r="E13">
-        <v>0.03962752205987208</v>
+        <v>0.03832194066597694</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.30216839367381</v>
+        <v>0.9853042120358992</v>
       </c>
       <c r="H13">
-        <v>0.113254750670265</v>
+        <v>0.1132580237076581</v>
       </c>
       <c r="I13">
-        <v>0.001392557866529032</v>
+        <v>0.001715155188936279</v>
       </c>
       <c r="J13">
-        <v>0.8048528684049074</v>
+        <v>0.4860745309781578</v>
       </c>
       <c r="K13">
-        <v>0.7835710064248715</v>
+        <v>0.5025202067499919</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2008144771818863</v>
       </c>
       <c r="M13">
-        <v>1.636807074870006</v>
+        <v>0.1844297652997149</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.356600423866368</v>
+        <v>1.679672570408457</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.362424490709742</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.349483528672152</v>
+        <v>1.320167703155619</v>
       </c>
       <c r="C14">
-        <v>0.3351619804051609</v>
+        <v>0.3826806915509451</v>
       </c>
       <c r="D14">
-        <v>0.3191048870369428</v>
+        <v>0.3191841079412825</v>
       </c>
       <c r="E14">
-        <v>0.015675234110758</v>
+        <v>0.01551168402505887</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.113567429013031</v>
+        <v>0.8451057216848028</v>
       </c>
       <c r="H14">
-        <v>0.1624822600577573</v>
+        <v>0.162488755393781</v>
       </c>
       <c r="I14">
-        <v>0.001415963031016432</v>
+        <v>0.001712044747862684</v>
       </c>
       <c r="J14">
-        <v>0.7101655829441995</v>
+        <v>0.4567746337035459</v>
       </c>
       <c r="K14">
-        <v>0.6768207933461738</v>
+        <v>0.4473630070344186</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.183130421808837</v>
       </c>
       <c r="M14">
-        <v>1.632897877514665</v>
+        <v>0.1602452396851248</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2617592502563113</v>
+        <v>1.672951759290356</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2663496769470193</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.343968452963992</v>
+        <v>1.315590652680925</v>
       </c>
       <c r="C15">
-        <v>0.3301387611826101</v>
+        <v>0.3764508596490543</v>
       </c>
       <c r="D15">
-        <v>0.3154108768643624</v>
+        <v>0.3155328335635375</v>
       </c>
       <c r="E15">
-        <v>0.01410926138400548</v>
+        <v>0.01424369089074162</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.063141520598066</v>
+        <v>0.8058570385788499</v>
       </c>
       <c r="H15">
-        <v>0.1749584971498734</v>
+        <v>0.174963304022981</v>
       </c>
       <c r="I15">
-        <v>0.001543546105189364</v>
+        <v>0.001839319827718455</v>
       </c>
       <c r="J15">
-        <v>0.6853181402562711</v>
+        <v>0.4554490955655126</v>
       </c>
       <c r="K15">
-        <v>0.6491895104280871</v>
+        <v>0.4351496513024387</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1795614598771813</v>
       </c>
       <c r="M15">
-        <v>1.621528784500782</v>
+        <v>0.1543691245417662</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2390563540651414</v>
+        <v>1.661207379230746</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.243380073799301</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.256788738306369</v>
+        <v>1.228859896801453</v>
       </c>
       <c r="C16">
-        <v>0.3088299138718753</v>
+        <v>0.3574213842775578</v>
       </c>
       <c r="D16">
-        <v>0.2946066332980308</v>
+        <v>0.2948857873833077</v>
       </c>
       <c r="E16">
-        <v>0.01291615758270848</v>
+        <v>0.0134444602070507</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.029706800569073</v>
+        <v>0.7683435358599553</v>
       </c>
       <c r="H16">
-        <v>0.1621291354874046</v>
+        <v>0.1621052076748839</v>
       </c>
       <c r="I16">
-        <v>0.001852355865400668</v>
+        <v>0.001998052358104907</v>
       </c>
       <c r="J16">
-        <v>0.6737383458352042</v>
+        <v>0.5124099129762243</v>
       </c>
       <c r="K16">
-        <v>0.6390233053478767</v>
+        <v>0.4500456357316196</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1880340092126787</v>
       </c>
       <c r="M16">
-        <v>1.517178443752414</v>
+        <v>0.155610427425291</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2269571183390724</v>
+        <v>1.559595851284882</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2315156138900036</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.182150392982095</v>
+        <v>1.153221077626569</v>
       </c>
       <c r="C17">
-        <v>0.2996813300388794</v>
+        <v>0.3524233332624078</v>
       </c>
       <c r="D17">
-        <v>0.2820135807882878</v>
+        <v>0.2823491831957767</v>
       </c>
       <c r="E17">
-        <v>0.01889371410770657</v>
+        <v>0.01913123075592083</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.10100613702879</v>
+        <v>0.813674613895131</v>
       </c>
       <c r="H17">
-        <v>0.124325160829585</v>
+        <v>0.1242771939371465</v>
       </c>
       <c r="I17">
-        <v>0.002145600589290808</v>
+        <v>0.002181544129815194</v>
       </c>
       <c r="J17">
-        <v>0.7136933081911252</v>
+        <v>0.5697113131295453</v>
       </c>
       <c r="K17">
-        <v>0.6858023027782707</v>
+        <v>0.4895348169619709</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2041727250942174</v>
       </c>
       <c r="M17">
-        <v>1.439556167910439</v>
+        <v>0.1683295460531014</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2650115585861528</v>
+        <v>1.484740066783189</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2704183402919043</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.111799159644164</v>
+        <v>1.079911068768581</v>
       </c>
       <c r="C18">
-        <v>0.2986894045487531</v>
+        <v>0.3591557125088229</v>
       </c>
       <c r="D18">
-        <v>0.2749503399816149</v>
+        <v>0.2752798054279992</v>
       </c>
       <c r="E18">
-        <v>0.06029995869317517</v>
+        <v>0.05948800358419248</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.287406858701345</v>
+        <v>0.9418283688259095</v>
       </c>
       <c r="H18">
-        <v>0.07144658758494415</v>
+        <v>0.07140423972158061</v>
       </c>
       <c r="I18">
-        <v>0.002000678229070019</v>
+        <v>0.001958808744403129</v>
       </c>
       <c r="J18">
-        <v>0.8108074733039814</v>
+        <v>0.6513001761667283</v>
       </c>
       <c r="K18">
-        <v>0.7984904808096118</v>
+        <v>0.565664978192828</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.23294143660085</v>
       </c>
       <c r="M18">
-        <v>1.375795684622886</v>
+        <v>0.1962809708861926</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3621442947067237</v>
+        <v>1.425132017462914</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3693182058683533</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049949203231876</v>
+        <v>1.013899259406458</v>
       </c>
       <c r="C19">
-        <v>0.3070121275886777</v>
+        <v>0.3782120651756884</v>
       </c>
       <c r="D19">
-        <v>0.2728047598377259</v>
+        <v>0.2730818061184692</v>
       </c>
       <c r="E19">
-        <v>0.1704944911575339</v>
+        <v>0.1678239481805264</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.557927798022888</v>
+        <v>1.127721272045463</v>
       </c>
       <c r="H19">
-        <v>0.02616595084244722</v>
+        <v>0.02615993096218006</v>
       </c>
       <c r="I19">
-        <v>0.002017792297017706</v>
+        <v>0.002055321375992847</v>
       </c>
       <c r="J19">
-        <v>0.9488463703340528</v>
+        <v>0.7517891712684559</v>
       </c>
       <c r="K19">
-        <v>0.9595313853760317</v>
+        <v>0.6682612968894119</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2706577006926523</v>
       </c>
       <c r="M19">
-        <v>1.330548411379141</v>
+        <v>0.2354283324171433</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5186505149869234</v>
+        <v>1.384867941548691</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5284064166600047</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.015922636485186</v>
+        <v>0.9715836707979406</v>
       </c>
       <c r="C20">
-        <v>0.3368750062309971</v>
+        <v>0.4272278206156841</v>
       </c>
       <c r="D20">
-        <v>0.2845558905067094</v>
+        <v>0.2846371324098271</v>
       </c>
       <c r="E20">
-        <v>0.4651276715874602</v>
+        <v>0.4581296630547627</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.079706977200345</v>
+        <v>1.487518910167012</v>
       </c>
       <c r="H20">
-        <v>0.0006410773565361794</v>
+        <v>0.0006776042802969506</v>
       </c>
       <c r="I20">
-        <v>0.001675454014045563</v>
+        <v>0.001953638512695477</v>
       </c>
       <c r="J20">
-        <v>1.209174760572409</v>
+        <v>0.9023495767331156</v>
       </c>
       <c r="K20">
-        <v>1.266549755971013</v>
+        <v>0.8489372574717535</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3328140085446378</v>
       </c>
       <c r="M20">
-        <v>1.334981189540201</v>
+        <v>0.3095549303191447</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8362402131566142</v>
+        <v>1.397066913703014</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8505215465874656</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.140063491069242</v>
+        <v>1.09169604081157</v>
       </c>
       <c r="C21">
-        <v>0.3837487207590016</v>
+        <v>0.4741923890370288</v>
       </c>
       <c r="D21">
-        <v>0.3225142949593618</v>
+        <v>0.3222017147366785</v>
       </c>
       <c r="E21">
-        <v>0.5553736642633282</v>
+        <v>0.5460964406133968</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.321374857128433</v>
+        <v>1.701730075655718</v>
       </c>
       <c r="H21">
-        <v>0.001993346415780195</v>
+        <v>0.001880469992668665</v>
       </c>
       <c r="I21">
-        <v>0.001885010272131282</v>
+        <v>0.002245209204064125</v>
       </c>
       <c r="J21">
-        <v>1.320774337220314</v>
+        <v>0.7717244859960886</v>
       </c>
       <c r="K21">
-        <v>1.391432829694111</v>
+        <v>0.8609753483261287</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3255618610387856</v>
       </c>
       <c r="M21">
-        <v>1.503831143168156</v>
+        <v>0.3286097347483121</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9702059580538673</v>
+        <v>1.562954529973609</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9840332571099495</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.226004935078976</v>
+        <v>1.1754605155175</v>
       </c>
       <c r="C22">
-        <v>0.4124496064002585</v>
+        <v>0.5010123787234591</v>
       </c>
       <c r="D22">
-        <v>0.34762852085872</v>
+        <v>0.3470103583295554</v>
       </c>
       <c r="E22">
-        <v>0.5980791186896539</v>
+        <v>0.5874474087682984</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.467936432692966</v>
+        <v>1.841762804489036</v>
       </c>
       <c r="H22">
-        <v>0.003320934044483081</v>
+        <v>0.00302765194383281</v>
       </c>
       <c r="I22">
-        <v>0.002289579746992843</v>
+        <v>0.002432135089126319</v>
       </c>
       <c r="J22">
-        <v>1.388002327193902</v>
+        <v>0.6815332044881472</v>
       </c>
       <c r="K22">
-        <v>1.466909803703373</v>
+        <v>0.862113505696037</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3186229023811649</v>
       </c>
       <c r="M22">
-        <v>1.616233234445957</v>
+        <v>0.3386936622349737</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.042573614704018</v>
+        <v>1.672127771589743</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.055634349127608</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.181132323887567</v>
+        <v>1.130887593610424</v>
       </c>
       <c r="C23">
-        <v>0.3954200913829879</v>
+        <v>0.4867364870613073</v>
       </c>
       <c r="D23">
-        <v>0.3342057341453</v>
+        <v>0.333765252987277</v>
       </c>
       <c r="E23">
-        <v>0.5754498621652004</v>
+        <v>0.5654529552287713</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.400654338716095</v>
+        <v>1.767054974390305</v>
       </c>
       <c r="H23">
-        <v>0.00257916198693886</v>
+        <v>0.002394389056296298</v>
       </c>
       <c r="I23">
-        <v>0.001727220734980328</v>
+        <v>0.001944889662961913</v>
       </c>
       <c r="J23">
-        <v>1.357635991169872</v>
+        <v>0.7517949892580305</v>
       </c>
       <c r="K23">
-        <v>1.434266561761262</v>
+        <v>0.8720272139763168</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3259347848912597</v>
       </c>
       <c r="M23">
-        <v>1.555144138671267</v>
+        <v>0.3375589949643256</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.003681074304929</v>
+        <v>1.614073120876412</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.017452200617903</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.010196013389816</v>
+        <v>0.9652800078443136</v>
       </c>
       <c r="C24">
-        <v>0.3348648084282502</v>
+        <v>0.4263221339570009</v>
       </c>
       <c r="D24">
-        <v>0.2840107508566092</v>
+        <v>0.2840828989942423</v>
       </c>
       <c r="E24">
-        <v>0.4901843404673087</v>
+        <v>0.4828457326159921</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.130156323054564</v>
+        <v>1.522445924249638</v>
       </c>
       <c r="H24">
-        <v>0.000591658146197549</v>
+        <v>0.0006279671611499893</v>
       </c>
       <c r="I24">
-        <v>0.001174964373062082</v>
+        <v>0.001358376323833177</v>
       </c>
       <c r="J24">
-        <v>1.234743661516632</v>
+        <v>0.9219569553822282</v>
       </c>
       <c r="K24">
-        <v>1.298909433112513</v>
+        <v>0.8703949517813072</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3407380865801244</v>
       </c>
       <c r="M24">
-        <v>1.327301561178331</v>
+        <v>0.3177103495213345</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8576799656075593</v>
+        <v>1.389974397739081</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8723263054351236</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.826925633384235</v>
+        <v>0.7946478632186711</v>
       </c>
       <c r="C25">
-        <v>0.2717061854409053</v>
+        <v>0.3442074476322432</v>
       </c>
       <c r="D25">
-        <v>0.2310369874995644</v>
+        <v>0.231376017440482</v>
       </c>
       <c r="E25">
-        <v>0.3995249069045315</v>
+        <v>0.3952760413189296</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.842693565271105</v>
+        <v>1.34579812695128</v>
       </c>
       <c r="H25">
-        <v>2.748795261631187E-05</v>
+        <v>6.002174643082725E-06</v>
       </c>
       <c r="I25">
-        <v>0.00272833348800372</v>
+        <v>0.002229278471651774</v>
       </c>
       <c r="J25">
-        <v>1.10443106583557</v>
+        <v>0.8629158360562315</v>
       </c>
       <c r="K25">
-        <v>1.154411118322486</v>
+        <v>0.8065282146885764</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3343203614981789</v>
       </c>
       <c r="M25">
-        <v>1.08470229707234</v>
+        <v>0.2741496511539196</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7017518920082111</v>
+        <v>1.137547948791848</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7141777020425479</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
